--- a/Texas COVID-19 Case Count Data by County.xlsx
+++ b/Texas COVID-19 Case Count Data by County.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4757127C-E242-4DF1-87C6-083F89A3E3C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{556C5A8A-1653-414D-A1B0-D6A041CA95E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="Vlook">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="316">
   <si>
     <t>Population</t>
   </si>
@@ -1025,7 +1028,39 @@
 04-16</t>
   </si>
   <si>
-    <t>COVID-19 Total Cases by County, March 4 - April 16*</t>
+    <t>Cases 
+04-18</t>
+  </si>
+  <si>
+    <t>Cases 
+04-19</t>
+  </si>
+  <si>
+    <t>Cases 
+04-17</t>
+  </si>
+  <si>
+    <t>Cases 
+04-20</t>
+  </si>
+  <si>
+    <t>Cases 
+04-21</t>
+  </si>
+  <si>
+    <t>Cases 
+04-22</t>
+  </si>
+  <si>
+    <t>Cases 
+04-23</t>
+  </si>
+  <si>
+    <t>COVID-19 Total Cases by County, March 4 - April 24*</t>
+  </si>
+  <si>
+    <t>Cases 
+04-24</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1340,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1380,6 +1415,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,12 +1812,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ401"/>
+  <dimension ref="A1:AY401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A30" sqref="A30"/>
-      <selection pane="topRight" activeCell="K88" sqref="K88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY258" sqref="AY258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1789,10 +1833,11 @@
     <col min="34" max="34" width="10.81640625" style="11" customWidth="1"/>
     <col min="35" max="35" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="36" max="43" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.7265625" style="11"/>
+    <col min="44" max="51" width="11" style="53" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="22" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="22" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1805,7 +1850,7 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="21" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -1825,13 +1870,21 @@
       <c r="AB1" s="18"/>
       <c r="AC1" s="18"/>
       <c r="AD1" s="18"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
     </row>
-    <row r="2" spans="1:43" s="22" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:51" s="22" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -1858,8 +1911,16 @@
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
     </row>
-    <row r="3" spans="1:43" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" s="12" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>259</v>
       </c>
@@ -1989,8 +2050,32 @@
       <c r="AQ3" s="4" t="s">
         <v>306</v>
       </c>
+      <c r="AR3" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="AS3" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT3" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU3" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV3" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW3" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX3" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="AY3" s="49" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" s="12" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
@@ -2120,8 +2205,32 @@
       <c r="AQ4" s="45">
         <v>6</v>
       </c>
+      <c r="AR4" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS4" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU4" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="50">
+        <v>10</v>
+      </c>
+      <c r="AW4" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX4" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY4" s="50">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2360,32 @@
       <c r="AQ5" s="45">
         <v>19</v>
       </c>
+      <c r="AR5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AS5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AT5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AU5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AV5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AW5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="50">
+        <v>19</v>
+      </c>
+      <c r="AY5" s="50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2515,32 @@
       <c r="AQ6" s="45">
         <v>20</v>
       </c>
+      <c r="AR6" s="50">
+        <v>23</v>
+      </c>
+      <c r="AS6" s="50">
+        <v>23</v>
+      </c>
+      <c r="AT6" s="50">
+        <v>23</v>
+      </c>
+      <c r="AU6" s="50">
+        <v>23</v>
+      </c>
+      <c r="AV6" s="50">
+        <v>27</v>
+      </c>
+      <c r="AW6" s="50">
+        <v>30</v>
+      </c>
+      <c r="AX6" s="50">
+        <v>31</v>
+      </c>
+      <c r="AY6" s="50">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
@@ -2513,8 +2670,32 @@
       <c r="AQ7" s="45">
         <v>2</v>
       </c>
+      <c r="AR7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
@@ -2644,8 +2825,32 @@
       <c r="AQ8" s="45">
         <v>0</v>
       </c>
+      <c r="AR8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
@@ -2775,8 +2980,32 @@
       <c r="AQ9" s="45">
         <v>1</v>
       </c>
+      <c r="AR9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>8</v>
       </c>
@@ -2906,8 +3135,32 @@
       <c r="AQ10" s="45">
         <v>9</v>
       </c>
+      <c r="AR10" s="50">
+        <v>9</v>
+      </c>
+      <c r="AS10" s="50">
+        <v>10</v>
+      </c>
+      <c r="AT10" s="50">
+        <v>10</v>
+      </c>
+      <c r="AU10" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV10" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW10" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX10" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY10" s="50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
@@ -3037,8 +3290,32 @@
       <c r="AQ11" s="45">
         <v>12</v>
       </c>
+      <c r="AR11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX11" s="50">
+        <v>12</v>
+      </c>
+      <c r="AY11" s="50">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
@@ -3168,8 +3445,32 @@
       <c r="AQ12" s="45">
         <v>0</v>
       </c>
+      <c r="AR12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
@@ -3299,8 +3600,32 @@
       <c r="AQ13" s="45">
         <v>3</v>
       </c>
+      <c r="AR13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX13" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY13" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" s="27" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" s="27" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
@@ -3430,8 +3755,32 @@
       <c r="AQ14" s="45">
         <v>37</v>
       </c>
+      <c r="AR14" s="50">
+        <v>42</v>
+      </c>
+      <c r="AS14" s="50">
+        <v>42</v>
+      </c>
+      <c r="AT14" s="50">
+        <v>43</v>
+      </c>
+      <c r="AU14" s="50">
+        <v>44</v>
+      </c>
+      <c r="AV14" s="50">
+        <v>49</v>
+      </c>
+      <c r="AW14" s="50">
+        <v>51</v>
+      </c>
+      <c r="AX14" s="50">
+        <v>53</v>
+      </c>
+      <c r="AY14" s="50">
+        <v>57</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
@@ -3561,8 +3910,32 @@
       <c r="AQ15" s="45">
         <v>0</v>
       </c>
+      <c r="AR15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
@@ -3692,8 +4065,32 @@
       <c r="AQ16" s="45">
         <v>3</v>
       </c>
+      <c r="AR16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW16" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
@@ -3823,8 +4220,32 @@
       <c r="AQ17" s="45">
         <v>115</v>
       </c>
+      <c r="AR17" s="50">
+        <v>124</v>
+      </c>
+      <c r="AS17" s="50">
+        <v>126</v>
+      </c>
+      <c r="AT17" s="50">
+        <v>126</v>
+      </c>
+      <c r="AU17" s="50">
+        <v>126</v>
+      </c>
+      <c r="AV17" s="50">
+        <v>135</v>
+      </c>
+      <c r="AW17" s="50">
+        <v>145</v>
+      </c>
+      <c r="AX17" s="50">
+        <v>153</v>
+      </c>
+      <c r="AY17" s="50">
+        <v>161</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
@@ -3954,8 +4375,32 @@
       <c r="AQ18" s="45">
         <v>890</v>
       </c>
+      <c r="AR18" s="50">
+        <v>918</v>
+      </c>
+      <c r="AS18" s="50">
+        <v>959</v>
+      </c>
+      <c r="AT18" s="50">
+        <v>992</v>
+      </c>
+      <c r="AU18" s="50">
+        <v>1015</v>
+      </c>
+      <c r="AV18" s="50">
+        <v>1029</v>
+      </c>
+      <c r="AW18" s="50">
+        <v>1080</v>
+      </c>
+      <c r="AX18" s="50">
+        <v>1126</v>
+      </c>
+      <c r="AY18" s="50">
+        <v>1167</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
@@ -4085,8 +4530,32 @@
       <c r="AQ19" s="45">
         <v>4</v>
       </c>
+      <c r="AR19" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS19" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT19" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU19" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW19" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX19" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY19" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
@@ -4216,8 +4685,32 @@
       <c r="AQ20" s="45">
         <v>0</v>
       </c>
+      <c r="AR20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
@@ -4347,8 +4840,32 @@
       <c r="AQ21" s="45">
         <v>1</v>
       </c>
+      <c r="AR21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW21" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX21" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>20</v>
       </c>
@@ -4478,8 +4995,32 @@
       <c r="AQ22" s="45">
         <v>45</v>
       </c>
+      <c r="AR22" s="50">
+        <v>53</v>
+      </c>
+      <c r="AS22" s="50">
+        <v>56</v>
+      </c>
+      <c r="AT22" s="50">
+        <v>57</v>
+      </c>
+      <c r="AU22" s="50">
+        <v>57</v>
+      </c>
+      <c r="AV22" s="50">
+        <v>64</v>
+      </c>
+      <c r="AW22" s="50">
+        <v>66</v>
+      </c>
+      <c r="AX22" s="50">
+        <v>66</v>
+      </c>
+      <c r="AY22" s="50">
+        <v>67</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>21</v>
       </c>
@@ -4609,8 +5150,32 @@
       <c r="AQ23" s="45">
         <v>272</v>
       </c>
+      <c r="AR23" s="50">
+        <v>285</v>
+      </c>
+      <c r="AS23" s="50">
+        <v>302</v>
+      </c>
+      <c r="AT23" s="50">
+        <v>304</v>
+      </c>
+      <c r="AU23" s="50">
+        <v>315</v>
+      </c>
+      <c r="AV23" s="50">
+        <v>333</v>
+      </c>
+      <c r="AW23" s="50">
+        <v>345</v>
+      </c>
+      <c r="AX23" s="50">
+        <v>382</v>
+      </c>
+      <c r="AY23" s="50">
+        <v>392</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>22</v>
       </c>
@@ -4740,8 +5305,32 @@
       <c r="AQ24" s="45">
         <v>151</v>
       </c>
+      <c r="AR24" s="50">
+        <v>158</v>
+      </c>
+      <c r="AS24" s="50">
+        <v>164</v>
+      </c>
+      <c r="AT24" s="50">
+        <v>169</v>
+      </c>
+      <c r="AU24" s="50">
+        <v>170</v>
+      </c>
+      <c r="AV24" s="50">
+        <v>170</v>
+      </c>
+      <c r="AW24" s="50">
+        <v>173</v>
+      </c>
+      <c r="AX24" s="50">
+        <v>177</v>
+      </c>
+      <c r="AY24" s="50">
+        <v>177</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
@@ -4871,8 +5460,32 @@
       <c r="AQ25" s="45">
         <v>0</v>
       </c>
+      <c r="AR25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>24</v>
       </c>
@@ -5002,8 +5615,32 @@
       <c r="AQ26" s="45">
         <v>0</v>
       </c>
+      <c r="AR26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>25</v>
       </c>
@@ -5133,8 +5770,32 @@
       <c r="AQ27" s="45">
         <v>0</v>
       </c>
+      <c r="AR27" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>26</v>
       </c>
@@ -5264,8 +5925,32 @@
       <c r="AQ28" s="45">
         <v>12</v>
       </c>
+      <c r="AR28" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS28" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT28" s="50">
+        <v>13</v>
+      </c>
+      <c r="AU28" s="50">
+        <v>13</v>
+      </c>
+      <c r="AV28" s="50">
+        <v>13</v>
+      </c>
+      <c r="AW28" s="50">
+        <v>13</v>
+      </c>
+      <c r="AX28" s="50">
+        <v>13</v>
+      </c>
+      <c r="AY28" s="50">
+        <v>17</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>27</v>
       </c>
@@ -5395,8 +6080,32 @@
       <c r="AQ29" s="45">
         <v>8</v>
       </c>
+      <c r="AR29" s="50">
+        <v>9</v>
+      </c>
+      <c r="AS29" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT29" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU29" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV29" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW29" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX29" s="50">
+        <v>11</v>
+      </c>
+      <c r="AY29" s="50">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>28</v>
       </c>
@@ -5526,8 +6235,32 @@
       <c r="AQ30" s="45">
         <v>7</v>
       </c>
+      <c r="AR30" s="50">
+        <v>8</v>
+      </c>
+      <c r="AS30" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT30" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU30" s="50">
+        <v>9</v>
+      </c>
+      <c r="AV30" s="50">
+        <v>13</v>
+      </c>
+      <c r="AW30" s="50">
+        <v>13</v>
+      </c>
+      <c r="AX30" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY30" s="50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>29</v>
       </c>
@@ -5657,8 +6390,32 @@
       <c r="AQ31" s="45">
         <v>7</v>
       </c>
+      <c r="AR31" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS31" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT31" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU31" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV31" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW31" s="50">
+        <v>8</v>
+      </c>
+      <c r="AX31" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY31" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>30</v>
       </c>
@@ -5788,8 +6545,32 @@
       <c r="AQ32" s="45">
         <v>19</v>
       </c>
+      <c r="AR32" s="50">
+        <v>21</v>
+      </c>
+      <c r="AS32" s="50">
+        <v>21</v>
+      </c>
+      <c r="AT32" s="50">
+        <v>21</v>
+      </c>
+      <c r="AU32" s="50">
+        <v>21</v>
+      </c>
+      <c r="AV32" s="50">
+        <v>21</v>
+      </c>
+      <c r="AW32" s="50">
+        <v>22</v>
+      </c>
+      <c r="AX32" s="50">
+        <v>23</v>
+      </c>
+      <c r="AY32" s="50">
+        <v>23</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>31</v>
       </c>
@@ -5919,8 +6700,32 @@
       <c r="AQ33" s="45">
         <v>1</v>
       </c>
+      <c r="AR33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY33" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" s="27" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>32</v>
       </c>
@@ -6050,8 +6855,32 @@
       <c r="AQ34" s="45">
         <v>254</v>
       </c>
+      <c r="AR34" s="50">
+        <v>270</v>
+      </c>
+      <c r="AS34" s="50">
+        <v>279</v>
+      </c>
+      <c r="AT34" s="50">
+        <v>298</v>
+      </c>
+      <c r="AU34" s="50">
+        <v>298</v>
+      </c>
+      <c r="AV34" s="50">
+        <v>310</v>
+      </c>
+      <c r="AW34" s="50">
+        <v>310</v>
+      </c>
+      <c r="AX34" s="50">
+        <v>321</v>
+      </c>
+      <c r="AY34" s="50">
+        <v>333</v>
+      </c>
     </row>
-    <row r="35" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>33</v>
       </c>
@@ -6181,8 +7010,32 @@
       <c r="AQ35" s="45">
         <v>6</v>
       </c>
+      <c r="AR35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX35" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY35" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>34</v>
       </c>
@@ -6312,8 +7165,32 @@
       <c r="AQ36" s="45">
         <v>0</v>
       </c>
+      <c r="AR36" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>35</v>
       </c>
@@ -6443,8 +7320,32 @@
       <c r="AQ37" s="45">
         <v>5</v>
       </c>
+      <c r="AR37" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS37" s="50">
+        <v>10</v>
+      </c>
+      <c r="AT37" s="50">
+        <v>11</v>
+      </c>
+      <c r="AU37" s="50">
+        <v>11</v>
+      </c>
+      <c r="AV37" s="50">
+        <v>10</v>
+      </c>
+      <c r="AW37" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX37" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY37" s="50">
+        <v>12</v>
+      </c>
     </row>
-    <row r="38" spans="1:43" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" s="12" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>36</v>
       </c>
@@ -6574,8 +7475,32 @@
       <c r="AQ38" s="45">
         <v>11</v>
       </c>
+      <c r="AR38" s="50">
+        <v>11</v>
+      </c>
+      <c r="AS38" s="50">
+        <v>11</v>
+      </c>
+      <c r="AT38" s="50">
+        <v>11</v>
+      </c>
+      <c r="AU38" s="50">
+        <v>11</v>
+      </c>
+      <c r="AV38" s="50">
+        <v>11</v>
+      </c>
+      <c r="AW38" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX38" s="50">
+        <v>13</v>
+      </c>
+      <c r="AY38" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="39" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>37</v>
       </c>
@@ -6705,8 +7630,32 @@
       <c r="AQ39" s="45">
         <v>33</v>
       </c>
+      <c r="AR39" s="50">
+        <v>34</v>
+      </c>
+      <c r="AS39" s="50">
+        <v>35</v>
+      </c>
+      <c r="AT39" s="50">
+        <v>35</v>
+      </c>
+      <c r="AU39" s="50">
+        <v>35</v>
+      </c>
+      <c r="AV39" s="50">
+        <v>35</v>
+      </c>
+      <c r="AW39" s="50">
+        <v>36</v>
+      </c>
+      <c r="AX39" s="50">
+        <v>39</v>
+      </c>
+      <c r="AY39" s="50">
+        <v>41</v>
+      </c>
     </row>
-    <row r="40" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>38</v>
       </c>
@@ -6836,8 +7785,32 @@
       <c r="AQ40" s="45">
         <v>8</v>
       </c>
+      <c r="AR40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AS40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AW40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AX40" s="50">
+        <v>8</v>
+      </c>
+      <c r="AY40" s="50">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>39</v>
       </c>
@@ -6967,8 +7940,32 @@
       <c r="AQ41" s="45">
         <v>0</v>
       </c>
+      <c r="AR41" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>40</v>
       </c>
@@ -7098,8 +8095,32 @@
       <c r="AQ42" s="45">
         <v>3</v>
       </c>
+      <c r="AR42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX42" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY42" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>41</v>
       </c>
@@ -7229,8 +8250,32 @@
       <c r="AQ43" s="45">
         <v>0</v>
       </c>
+      <c r="AR43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>42</v>
       </c>
@@ -7360,8 +8405,32 @@
       <c r="AQ44" s="45">
         <v>0</v>
       </c>
+      <c r="AR44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>43</v>
       </c>
@@ -7491,8 +8560,32 @@
       <c r="AQ45" s="45">
         <v>0</v>
       </c>
+      <c r="AR45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>44</v>
       </c>
@@ -7622,8 +8715,32 @@
       <c r="AQ46" s="45">
         <v>494</v>
       </c>
+      <c r="AR46" s="50">
+        <v>505</v>
+      </c>
+      <c r="AS46" s="50">
+        <v>521</v>
+      </c>
+      <c r="AT46" s="50">
+        <v>522</v>
+      </c>
+      <c r="AU46" s="50">
+        <v>527</v>
+      </c>
+      <c r="AV46" s="50">
+        <v>544</v>
+      </c>
+      <c r="AW46" s="50">
+        <v>570</v>
+      </c>
+      <c r="AX46" s="50">
+        <v>584</v>
+      </c>
+      <c r="AY46" s="50">
+        <v>609</v>
+      </c>
     </row>
-    <row r="47" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>45</v>
       </c>
@@ -7753,8 +8870,32 @@
       <c r="AQ47" s="45">
         <v>0</v>
       </c>
+      <c r="AR47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>46</v>
       </c>
@@ -7884,8 +9025,32 @@
       <c r="AQ48" s="45">
         <v>7</v>
       </c>
+      <c r="AR48" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS48" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT48" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU48" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV48" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW48" s="50">
+        <v>9</v>
+      </c>
+      <c r="AX48" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY48" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="49" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>47</v>
       </c>
@@ -8015,8 +9180,32 @@
       <c r="AQ49" s="45">
         <v>43</v>
       </c>
+      <c r="AR49" s="50">
+        <v>43</v>
+      </c>
+      <c r="AS49" s="50">
+        <v>43</v>
+      </c>
+      <c r="AT49" s="50">
+        <v>43</v>
+      </c>
+      <c r="AU49" s="50">
+        <v>43</v>
+      </c>
+      <c r="AV49" s="50">
+        <v>43</v>
+      </c>
+      <c r="AW49" s="50">
+        <v>45</v>
+      </c>
+      <c r="AX49" s="50">
+        <v>47</v>
+      </c>
+      <c r="AY49" s="50">
+        <v>48</v>
+      </c>
     </row>
-    <row r="50" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>48</v>
       </c>
@@ -8146,8 +9335,32 @@
       <c r="AQ50" s="45">
         <v>3</v>
       </c>
+      <c r="AR50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX50" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY50" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>49</v>
       </c>
@@ -8277,8 +9490,32 @@
       <c r="AQ51" s="45">
         <v>1</v>
       </c>
+      <c r="AR51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY51" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="52" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>50</v>
       </c>
@@ -8408,8 +9645,32 @@
       <c r="AQ52" s="45">
         <v>2</v>
       </c>
+      <c r="AR52" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS52" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT52" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU52" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV52" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW52" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX52" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY52" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>51</v>
       </c>
@@ -8539,8 +9800,32 @@
       <c r="AQ53" s="45">
         <v>70</v>
       </c>
+      <c r="AR53" s="50">
+        <v>71</v>
+      </c>
+      <c r="AS53" s="50">
+        <v>75</v>
+      </c>
+      <c r="AT53" s="50">
+        <v>75</v>
+      </c>
+      <c r="AU53" s="50">
+        <v>75</v>
+      </c>
+      <c r="AV53" s="50">
+        <v>84</v>
+      </c>
+      <c r="AW53" s="50">
+        <v>86</v>
+      </c>
+      <c r="AX53" s="50">
+        <v>86</v>
+      </c>
+      <c r="AY53" s="50">
+        <v>103</v>
+      </c>
     </row>
-    <row r="54" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>52</v>
       </c>
@@ -8670,8 +9955,32 @@
       <c r="AQ54" s="45">
         <v>0</v>
       </c>
+      <c r="AR54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>53</v>
       </c>
@@ -8801,8 +10110,32 @@
       <c r="AQ55" s="45">
         <v>2</v>
       </c>
+      <c r="AR55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX55" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY55" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>54</v>
       </c>
@@ -8932,8 +10265,32 @@
       <c r="AQ56" s="45">
         <v>0</v>
       </c>
+      <c r="AR56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX56" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>55</v>
       </c>
@@ -9063,8 +10420,32 @@
       <c r="AQ57" s="45">
         <v>1</v>
       </c>
+      <c r="AR57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX57" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>56</v>
       </c>
@@ -9194,8 +10575,32 @@
       <c r="AQ58" s="45">
         <v>0</v>
       </c>
+      <c r="AR58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>57</v>
       </c>
@@ -9325,8 +10730,32 @@
       <c r="AQ59" s="45">
         <v>2</v>
       </c>
+      <c r="AR59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU59" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV59" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX59" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY59" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>58</v>
       </c>
@@ -9456,8 +10885,32 @@
       <c r="AQ60" s="45">
         <v>1986</v>
       </c>
+      <c r="AR60" s="50">
+        <v>2066</v>
+      </c>
+      <c r="AS60" s="50">
+        <v>2190</v>
+      </c>
+      <c r="AT60" s="50">
+        <v>2324</v>
+      </c>
+      <c r="AU60" s="50">
+        <v>2428</v>
+      </c>
+      <c r="AV60" s="50">
+        <v>2512</v>
+      </c>
+      <c r="AW60" s="50">
+        <v>2602</v>
+      </c>
+      <c r="AX60" s="50">
+        <v>2683</v>
+      </c>
+      <c r="AY60" s="50">
+        <v>2763</v>
+      </c>
     </row>
-    <row r="61" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>59</v>
       </c>
@@ -9587,8 +11040,32 @@
       <c r="AQ61" s="45">
         <v>8</v>
       </c>
+      <c r="AR61" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS61" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT61" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU61" s="50">
+        <v>13</v>
+      </c>
+      <c r="AV61" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW61" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX61" s="50">
+        <v>18</v>
+      </c>
+      <c r="AY61" s="50">
+        <v>18</v>
+      </c>
     </row>
-    <row r="62" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>60</v>
       </c>
@@ -9718,8 +11195,32 @@
       <c r="AQ62" s="45">
         <v>11</v>
       </c>
+      <c r="AR62" s="50">
+        <v>11</v>
+      </c>
+      <c r="AS62" s="50">
+        <v>11</v>
+      </c>
+      <c r="AT62" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU62" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV62" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW62" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX62" s="50">
+        <v>17</v>
+      </c>
+      <c r="AY62" s="50">
+        <v>21</v>
+      </c>
     </row>
-    <row r="63" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>61</v>
       </c>
@@ -9849,8 +11350,32 @@
       <c r="AQ63" s="45">
         <v>1</v>
       </c>
+      <c r="AR63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>62</v>
       </c>
@@ -9980,8 +11505,32 @@
       <c r="AQ64" s="45">
         <v>547</v>
       </c>
+      <c r="AR64" s="50">
+        <v>564</v>
+      </c>
+      <c r="AS64" s="50">
+        <v>585</v>
+      </c>
+      <c r="AT64" s="50">
+        <v>592</v>
+      </c>
+      <c r="AU64" s="50">
+        <v>593</v>
+      </c>
+      <c r="AV64" s="50">
+        <v>598</v>
+      </c>
+      <c r="AW64" s="50">
+        <v>619</v>
+      </c>
+      <c r="AX64" s="50">
+        <v>644</v>
+      </c>
+      <c r="AY64" s="50">
+        <v>661</v>
+      </c>
     </row>
-    <row r="65" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>63</v>
       </c>
@@ -10111,8 +11660,32 @@
       <c r="AQ65" s="45">
         <v>10</v>
       </c>
+      <c r="AR65" s="50">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="50">
+        <v>13</v>
+      </c>
+      <c r="AT65" s="50">
+        <v>13</v>
+      </c>
+      <c r="AU65" s="50">
+        <v>13</v>
+      </c>
+      <c r="AV65" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW65" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX65" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY65" s="50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="66" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>64</v>
       </c>
@@ -10242,8 +11815,32 @@
       <c r="AQ66" s="45">
         <v>1</v>
       </c>
+      <c r="AR66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX66" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY66" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>65</v>
       </c>
@@ -10373,8 +11970,32 @@
       <c r="AQ67" s="45">
         <v>1</v>
       </c>
+      <c r="AR67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX67" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY67" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:43" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:51" s="28" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>66</v>
       </c>
@@ -10504,8 +12125,32 @@
       <c r="AQ68" s="45">
         <v>23</v>
       </c>
+      <c r="AR68" s="50">
+        <v>23</v>
+      </c>
+      <c r="AS68" s="50">
+        <v>23</v>
+      </c>
+      <c r="AT68" s="50">
+        <v>23</v>
+      </c>
+      <c r="AU68" s="50">
+        <v>23</v>
+      </c>
+      <c r="AV68" s="50">
+        <v>24</v>
+      </c>
+      <c r="AW68" s="50">
+        <v>24</v>
+      </c>
+      <c r="AX68" s="50">
+        <v>24</v>
+      </c>
+      <c r="AY68" s="50">
+        <v>24</v>
+      </c>
     </row>
-    <row r="69" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>67</v>
       </c>
@@ -10635,8 +12280,32 @@
       <c r="AQ69" s="45">
         <v>1</v>
       </c>
+      <c r="AR69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX69" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>68</v>
       </c>
@@ -10766,8 +12435,32 @@
       <c r="AQ70" s="45">
         <v>3</v>
       </c>
+      <c r="AR70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX70" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY70" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="71" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>69</v>
       </c>
@@ -10897,8 +12590,32 @@
       <c r="AQ71" s="45">
         <v>48</v>
       </c>
+      <c r="AR71" s="50">
+        <v>55</v>
+      </c>
+      <c r="AS71" s="50">
+        <v>58</v>
+      </c>
+      <c r="AT71" s="50">
+        <v>58</v>
+      </c>
+      <c r="AU71" s="50">
+        <v>58</v>
+      </c>
+      <c r="AV71" s="50">
+        <v>60</v>
+      </c>
+      <c r="AW71" s="50">
+        <v>61</v>
+      </c>
+      <c r="AX71" s="50">
+        <v>62</v>
+      </c>
+      <c r="AY71" s="50">
+        <v>67</v>
+      </c>
     </row>
-    <row r="72" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>70</v>
       </c>
@@ -11028,8 +12745,32 @@
       <c r="AQ72" s="45">
         <v>0</v>
       </c>
+      <c r="AR72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>71</v>
       </c>
@@ -11159,8 +12900,32 @@
       <c r="AQ73" s="45">
         <v>81</v>
       </c>
+      <c r="AR73" s="50">
+        <v>82</v>
+      </c>
+      <c r="AS73" s="50">
+        <v>83</v>
+      </c>
+      <c r="AT73" s="50">
+        <v>83</v>
+      </c>
+      <c r="AU73" s="50">
+        <v>90</v>
+      </c>
+      <c r="AV73" s="50">
+        <v>100</v>
+      </c>
+      <c r="AW73" s="50">
+        <v>110</v>
+      </c>
+      <c r="AX73" s="50">
+        <v>111</v>
+      </c>
+      <c r="AY73" s="50">
+        <v>121</v>
+      </c>
     </row>
-    <row r="74" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>72</v>
       </c>
@@ -11290,8 +13055,32 @@
       <c r="AQ74" s="45">
         <v>393</v>
       </c>
+      <c r="AR74" s="50">
+        <v>451</v>
+      </c>
+      <c r="AS74" s="50">
+        <v>482</v>
+      </c>
+      <c r="AT74" s="50">
+        <v>505</v>
+      </c>
+      <c r="AU74" s="50">
+        <v>531</v>
+      </c>
+      <c r="AV74" s="50">
+        <v>540</v>
+      </c>
+      <c r="AW74" s="50">
+        <v>587</v>
+      </c>
+      <c r="AX74" s="50">
+        <v>645</v>
+      </c>
+      <c r="AY74" s="50">
+        <v>674</v>
+      </c>
     </row>
-    <row r="75" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>73</v>
       </c>
@@ -11421,8 +13210,32 @@
       <c r="AQ75" s="45">
         <v>12</v>
       </c>
+      <c r="AR75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX75" s="50">
+        <v>12</v>
+      </c>
+      <c r="AY75" s="50">
+        <v>12</v>
+      </c>
     </row>
-    <row r="76" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>74</v>
       </c>
@@ -11552,8 +13365,32 @@
       <c r="AQ76" s="45">
         <v>1</v>
       </c>
+      <c r="AR76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX76" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY76" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>75</v>
       </c>
@@ -11683,8 +13520,32 @@
       <c r="AQ77" s="45">
         <v>5</v>
       </c>
+      <c r="AR77" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS77" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT77" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU77" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV77" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW77" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX77" s="50">
+        <v>13</v>
+      </c>
+      <c r="AY77" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="78" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>76</v>
       </c>
@@ -11814,8 +13675,32 @@
       <c r="AQ78" s="45">
         <v>13</v>
       </c>
+      <c r="AR78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AS78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AT78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AU78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AV78" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AX78" s="50">
+        <v>15</v>
+      </c>
+      <c r="AY78" s="50">
+        <v>15</v>
+      </c>
     </row>
-    <row r="79" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>77</v>
       </c>
@@ -11945,8 +13830,32 @@
       <c r="AQ79" s="45">
         <v>0</v>
       </c>
+      <c r="AR79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX79" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY79" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>78</v>
       </c>
@@ -12076,8 +13985,32 @@
       <c r="AQ80" s="45">
         <v>2</v>
       </c>
+      <c r="AR80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW80" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX80" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY80" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="81" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>79</v>
       </c>
@@ -12207,8 +14140,32 @@
       <c r="AQ81" s="45">
         <v>0</v>
       </c>
+      <c r="AR81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX81" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY81" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>80</v>
       </c>
@@ -12338,8 +14295,32 @@
       <c r="AQ82" s="45">
         <v>627</v>
       </c>
+      <c r="AR82" s="50">
+        <v>656</v>
+      </c>
+      <c r="AS82" s="50">
+        <v>755</v>
+      </c>
+      <c r="AT82" s="50">
+        <v>755</v>
+      </c>
+      <c r="AU82" s="50">
+        <v>783</v>
+      </c>
+      <c r="AV82" s="50">
+        <v>799</v>
+      </c>
+      <c r="AW82" s="50">
+        <v>808</v>
+      </c>
+      <c r="AX82" s="50">
+        <v>870</v>
+      </c>
+      <c r="AY82" s="50">
+        <v>889</v>
+      </c>
     </row>
-    <row r="83" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>81</v>
       </c>
@@ -12469,8 +14450,32 @@
       <c r="AQ83" s="45">
         <v>1</v>
       </c>
+      <c r="AR83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX83" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY83" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>82</v>
       </c>
@@ -12600,8 +14605,32 @@
       <c r="AQ84" s="45">
         <v>1</v>
       </c>
+      <c r="AR84" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX84" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY84" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="85" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>83</v>
       </c>
@@ -12731,8 +14760,32 @@
       <c r="AQ85" s="45">
         <v>1</v>
       </c>
+      <c r="AR85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX85" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY85" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>84</v>
       </c>
@@ -12862,8 +14915,32 @@
       <c r="AQ86" s="45">
         <v>2</v>
       </c>
+      <c r="AR86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX86" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY86" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="87" spans="1:43" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:51" s="29" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>85</v>
       </c>
@@ -12993,8 +15070,32 @@
       <c r="AQ87" s="45">
         <v>401</v>
       </c>
+      <c r="AR87" s="50">
+        <v>421</v>
+      </c>
+      <c r="AS87" s="50">
+        <v>438</v>
+      </c>
+      <c r="AT87" s="50">
+        <v>450</v>
+      </c>
+      <c r="AU87" s="50">
+        <v>455</v>
+      </c>
+      <c r="AV87" s="50">
+        <v>468</v>
+      </c>
+      <c r="AW87" s="50">
+        <v>479</v>
+      </c>
+      <c r="AX87" s="50">
+        <v>491</v>
+      </c>
+      <c r="AY87" s="50">
+        <v>507</v>
+      </c>
     </row>
-    <row r="88" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>86</v>
       </c>
@@ -13124,8 +15225,32 @@
       <c r="AQ88" s="45">
         <v>0</v>
       </c>
+      <c r="AR88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY88" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>87</v>
       </c>
@@ -13255,8 +15380,32 @@
       <c r="AQ89" s="45">
         <v>1</v>
       </c>
+      <c r="AR89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX89" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY89" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="90" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>88</v>
       </c>
@@ -13386,8 +15535,32 @@
       <c r="AQ90" s="45">
         <v>0</v>
       </c>
+      <c r="AR90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX90" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY90" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>89</v>
       </c>
@@ -13517,8 +15690,32 @@
       <c r="AQ91" s="45">
         <v>5</v>
       </c>
+      <c r="AR91" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS91" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT91" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU91" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV91" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW91" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX91" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY91" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="92" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>90</v>
       </c>
@@ -13648,8 +15845,32 @@
       <c r="AQ92" s="45">
         <v>2</v>
       </c>
+      <c r="AR92" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS92" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT92" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU92" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV92" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW92" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX92" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY92" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="93" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>91</v>
       </c>
@@ -13779,8 +16000,32 @@
       <c r="AQ93" s="45">
         <v>16</v>
       </c>
+      <c r="AR93" s="50">
+        <v>16</v>
+      </c>
+      <c r="AS93" s="50">
+        <v>17</v>
+      </c>
+      <c r="AT93" s="50">
+        <v>17</v>
+      </c>
+      <c r="AU93" s="50">
+        <v>17</v>
+      </c>
+      <c r="AV93" s="50">
+        <v>20</v>
+      </c>
+      <c r="AW93" s="50">
+        <v>22</v>
+      </c>
+      <c r="AX93" s="50">
+        <v>27</v>
+      </c>
+      <c r="AY93" s="50">
+        <v>32</v>
+      </c>
     </row>
-    <row r="94" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
         <v>92</v>
       </c>
@@ -13910,8 +16155,32 @@
       <c r="AQ94" s="45">
         <v>19</v>
       </c>
+      <c r="AR94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AS94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AT94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AU94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AV94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AW94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AX94" s="50">
+        <v>19</v>
+      </c>
+      <c r="AY94" s="50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="95" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
         <v>93</v>
       </c>
@@ -14041,8 +16310,32 @@
       <c r="AQ95" s="45">
         <v>48</v>
       </c>
+      <c r="AR95" s="50">
+        <v>48</v>
+      </c>
+      <c r="AS95" s="50">
+        <v>50</v>
+      </c>
+      <c r="AT95" s="50">
+        <v>51</v>
+      </c>
+      <c r="AU95" s="50">
+        <v>51</v>
+      </c>
+      <c r="AV95" s="50">
+        <v>52</v>
+      </c>
+      <c r="AW95" s="50">
+        <v>53</v>
+      </c>
+      <c r="AX95" s="50">
+        <v>55</v>
+      </c>
+      <c r="AY95" s="50">
+        <v>58</v>
+      </c>
     </row>
-    <row r="96" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
         <v>94</v>
       </c>
@@ -14172,8 +16465,32 @@
       <c r="AQ96" s="45">
         <v>9</v>
       </c>
+      <c r="AR96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AS96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AT96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AU96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AV96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AW96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX96" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY96" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="97" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>95</v>
       </c>
@@ -14303,8 +16620,32 @@
       <c r="AQ97" s="45">
         <v>53</v>
       </c>
+      <c r="AR97" s="50">
+        <v>53</v>
+      </c>
+      <c r="AS97" s="50">
+        <v>53</v>
+      </c>
+      <c r="AT97" s="50">
+        <v>57</v>
+      </c>
+      <c r="AU97" s="50">
+        <v>58</v>
+      </c>
+      <c r="AV97" s="50">
+        <v>60</v>
+      </c>
+      <c r="AW97" s="50">
+        <v>63</v>
+      </c>
+      <c r="AX97" s="50">
+        <v>64</v>
+      </c>
+      <c r="AY97" s="50">
+        <v>64</v>
+      </c>
     </row>
-    <row r="98" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>96</v>
       </c>
@@ -14434,8 +16775,32 @@
       <c r="AQ98" s="45">
         <v>11</v>
       </c>
+      <c r="AR98" s="50">
+        <v>11</v>
+      </c>
+      <c r="AS98" s="50">
+        <v>11</v>
+      </c>
+      <c r="AT98" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU98" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV98" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW98" s="50">
+        <v>16</v>
+      </c>
+      <c r="AX98" s="50">
+        <v>16</v>
+      </c>
+      <c r="AY98" s="50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="99" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>97</v>
       </c>
@@ -14565,8 +16930,32 @@
       <c r="AQ99" s="45">
         <v>0</v>
       </c>
+      <c r="AR99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>98</v>
       </c>
@@ -14696,8 +17085,32 @@
       <c r="AQ100" s="45">
         <v>3</v>
       </c>
+      <c r="AR100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX100" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY100" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="101" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>99</v>
       </c>
@@ -14827,8 +17240,32 @@
       <c r="AQ101" s="45">
         <v>1</v>
       </c>
+      <c r="AR101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW101" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX101" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY101" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="102" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>100</v>
       </c>
@@ -14958,8 +17395,32 @@
       <c r="AQ102" s="45">
         <v>0</v>
       </c>
+      <c r="AR102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY102" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
         <v>101</v>
       </c>
@@ -15089,8 +17550,32 @@
       <c r="AQ103" s="45">
         <v>66</v>
       </c>
+      <c r="AR103" s="50">
+        <v>67</v>
+      </c>
+      <c r="AS103" s="50">
+        <v>67</v>
+      </c>
+      <c r="AT103" s="50">
+        <v>73</v>
+      </c>
+      <c r="AU103" s="50">
+        <v>73</v>
+      </c>
+      <c r="AV103" s="50">
+        <v>85</v>
+      </c>
+      <c r="AW103" s="50">
+        <v>89</v>
+      </c>
+      <c r="AX103" s="50">
+        <v>91</v>
+      </c>
+      <c r="AY103" s="50">
+        <v>91</v>
+      </c>
     </row>
-    <row r="104" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
         <v>102</v>
       </c>
@@ -15220,8 +17705,32 @@
       <c r="AQ104" s="45">
         <v>4097</v>
       </c>
+      <c r="AR104" s="50">
+        <v>4306</v>
+      </c>
+      <c r="AS104" s="50">
+        <v>4460</v>
+      </c>
+      <c r="AT104" s="50">
+        <v>4653</v>
+      </c>
+      <c r="AU104" s="50">
+        <v>4823</v>
+      </c>
+      <c r="AV104" s="50">
+        <v>4977</v>
+      </c>
+      <c r="AW104" s="50">
+        <v>5143</v>
+      </c>
+      <c r="AX104" s="50">
+        <v>5211</v>
+      </c>
+      <c r="AY104" s="50">
+        <v>5330</v>
+      </c>
     </row>
-    <row r="105" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="26" t="s">
         <v>103</v>
       </c>
@@ -15351,8 +17860,32 @@
       <c r="AQ105" s="45">
         <v>35</v>
       </c>
+      <c r="AR105" s="50">
+        <v>40</v>
+      </c>
+      <c r="AS105" s="50">
+        <v>42</v>
+      </c>
+      <c r="AT105" s="50">
+        <v>44</v>
+      </c>
+      <c r="AU105" s="50">
+        <v>47</v>
+      </c>
+      <c r="AV105" s="50">
+        <v>58</v>
+      </c>
+      <c r="AW105" s="50">
+        <v>59</v>
+      </c>
+      <c r="AX105" s="50">
+        <v>61</v>
+      </c>
+      <c r="AY105" s="50">
+        <v>69</v>
+      </c>
     </row>
-    <row r="106" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
         <v>104</v>
       </c>
@@ -15482,8 +18015,32 @@
       <c r="AQ106" s="45">
         <v>0</v>
       </c>
+      <c r="AR106" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT106" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU106" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV106" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW106" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX106" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY106" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="107" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
         <v>105</v>
       </c>
@@ -15613,8 +18170,32 @@
       <c r="AQ107" s="45">
         <v>0</v>
       </c>
+      <c r="AR107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX107" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY107" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
         <v>106</v>
       </c>
@@ -15744,8 +18325,32 @@
       <c r="AQ108" s="45">
         <v>109</v>
       </c>
+      <c r="AR108" s="50">
+        <v>109</v>
+      </c>
+      <c r="AS108" s="50">
+        <v>109</v>
+      </c>
+      <c r="AT108" s="50">
+        <v>109</v>
+      </c>
+      <c r="AU108" s="50">
+        <v>109</v>
+      </c>
+      <c r="AV108" s="50">
+        <v>109</v>
+      </c>
+      <c r="AW108" s="50">
+        <v>140</v>
+      </c>
+      <c r="AX108" s="50">
+        <v>140</v>
+      </c>
+      <c r="AY108" s="50">
+        <v>140</v>
+      </c>
     </row>
-    <row r="109" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
         <v>107</v>
       </c>
@@ -15875,8 +18480,32 @@
       <c r="AQ109" s="45">
         <v>1</v>
       </c>
+      <c r="AR109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX109" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY109" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
         <v>108</v>
       </c>
@@ -16006,8 +18635,32 @@
       <c r="AQ110" s="45">
         <v>12</v>
       </c>
+      <c r="AR110" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS110" s="50">
+        <v>13</v>
+      </c>
+      <c r="AT110" s="50">
+        <v>13</v>
+      </c>
+      <c r="AU110" s="50">
+        <v>13</v>
+      </c>
+      <c r="AV110" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW110" s="50">
+        <v>19</v>
+      </c>
+      <c r="AX110" s="50">
+        <v>22</v>
+      </c>
+      <c r="AY110" s="50">
+        <v>22</v>
+      </c>
     </row>
-    <row r="111" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
         <v>109</v>
       </c>
@@ -16137,8 +18790,32 @@
       <c r="AQ111" s="45">
         <v>225</v>
       </c>
+      <c r="AR111" s="50">
+        <v>235</v>
+      </c>
+      <c r="AS111" s="50">
+        <v>242</v>
+      </c>
+      <c r="AT111" s="50">
+        <v>255</v>
+      </c>
+      <c r="AU111" s="50">
+        <v>261</v>
+      </c>
+      <c r="AV111" s="50">
+        <v>268</v>
+      </c>
+      <c r="AW111" s="50">
+        <v>275</v>
+      </c>
+      <c r="AX111" s="50">
+        <v>281</v>
+      </c>
+      <c r="AY111" s="50">
+        <v>290</v>
+      </c>
     </row>
-    <row r="112" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
         <v>110</v>
       </c>
@@ -16268,8 +18945,32 @@
       <c r="AQ112" s="45">
         <v>9</v>
       </c>
+      <c r="AR112" s="50">
+        <v>10</v>
+      </c>
+      <c r="AS112" s="50">
+        <v>10</v>
+      </c>
+      <c r="AT112" s="50">
+        <v>10</v>
+      </c>
+      <c r="AU112" s="50">
+        <v>10</v>
+      </c>
+      <c r="AV112" s="50">
+        <v>11</v>
+      </c>
+      <c r="AW112" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX112" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY112" s="50">
+        <v>15</v>
+      </c>
     </row>
-    <row r="113" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
         <v>111</v>
       </c>
@@ -16399,8 +19100,32 @@
       <c r="AQ113" s="45">
         <v>15</v>
       </c>
+      <c r="AR113" s="50">
+        <v>15</v>
+      </c>
+      <c r="AS113" s="50">
+        <v>15</v>
+      </c>
+      <c r="AT113" s="50">
+        <v>16</v>
+      </c>
+      <c r="AU113" s="50">
+        <v>16</v>
+      </c>
+      <c r="AV113" s="50">
+        <v>16</v>
+      </c>
+      <c r="AW113" s="50">
+        <v>17</v>
+      </c>
+      <c r="AX113" s="50">
+        <v>18</v>
+      </c>
+      <c r="AY113" s="50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="114" spans="1:43" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:51" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
         <v>112</v>
       </c>
@@ -16530,8 +19255,32 @@
       <c r="AQ114" s="45">
         <v>15</v>
       </c>
+      <c r="AR114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AS114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AT114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AU114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AV114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AX114" s="50">
+        <v>15</v>
+      </c>
+      <c r="AY114" s="50">
+        <v>16</v>
+      </c>
     </row>
-    <row r="115" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
         <v>113</v>
       </c>
@@ -16661,8 +19410,32 @@
       <c r="AQ115" s="45">
         <v>4</v>
       </c>
+      <c r="AR115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX115" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY115" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="116" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="26" t="s">
         <v>114</v>
       </c>
@@ -16792,8 +19565,32 @@
       <c r="AQ116" s="45">
         <v>0</v>
       </c>
+      <c r="AR116" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS116" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT116" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU116" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV116" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW116" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX116" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY116" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="117" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>115</v>
       </c>
@@ -16923,8 +19720,32 @@
       <c r="AQ117" s="45">
         <v>1</v>
       </c>
+      <c r="AR117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW117" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX117" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY117" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="118" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>116</v>
       </c>
@@ -17054,8 +19875,32 @@
       <c r="AQ118" s="45">
         <v>0</v>
       </c>
+      <c r="AR118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX118" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY118" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>117</v>
       </c>
@@ -17185,8 +20030,32 @@
       <c r="AQ119" s="45">
         <v>25</v>
       </c>
+      <c r="AR119" s="50">
+        <v>25</v>
+      </c>
+      <c r="AS119" s="50">
+        <v>25</v>
+      </c>
+      <c r="AT119" s="50">
+        <v>26</v>
+      </c>
+      <c r="AU119" s="50">
+        <v>32</v>
+      </c>
+      <c r="AV119" s="50">
+        <v>35</v>
+      </c>
+      <c r="AW119" s="50">
+        <v>38</v>
+      </c>
+      <c r="AX119" s="50">
+        <v>37</v>
+      </c>
+      <c r="AY119" s="50">
+        <v>37</v>
+      </c>
     </row>
-    <row r="120" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
         <v>118</v>
       </c>
@@ -17316,8 +20185,32 @@
       <c r="AQ120" s="45">
         <v>6</v>
       </c>
+      <c r="AR120" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS120" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT120" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU120" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV120" s="50">
+        <v>8</v>
+      </c>
+      <c r="AW120" s="50">
+        <v>8</v>
+      </c>
+      <c r="AX120" s="50">
+        <v>9</v>
+      </c>
+      <c r="AY120" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="121" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
         <v>119</v>
       </c>
@@ -17447,8 +20340,32 @@
       <c r="AQ121" s="45">
         <v>0</v>
       </c>
+      <c r="AR121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX121" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY121" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
         <v>120</v>
       </c>
@@ -17578,8 +20495,32 @@
       <c r="AQ122" s="45">
         <v>3</v>
       </c>
+      <c r="AR122" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS122" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT122" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU122" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV122" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW122" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX122" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY122" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="123" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>121</v>
       </c>
@@ -17709,8 +20650,32 @@
       <c r="AQ123" s="45">
         <v>4</v>
       </c>
+      <c r="AR123" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS123" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT123" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU123" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV123" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW123" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX123" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY123" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="124" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>122</v>
       </c>
@@ -17840,8 +20805,32 @@
       <c r="AQ124" s="45">
         <v>6</v>
       </c>
+      <c r="AR124" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS124" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT124" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU124" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV124" s="50">
+        <v>10</v>
+      </c>
+      <c r="AW124" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX124" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY124" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="125" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>123</v>
       </c>
@@ -17971,8 +20960,32 @@
       <c r="AQ125" s="45">
         <v>0</v>
       </c>
+      <c r="AR125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX125" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY125" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="26" t="s">
         <v>124</v>
       </c>
@@ -18102,8 +21115,32 @@
       <c r="AQ126" s="45">
         <v>143</v>
       </c>
+      <c r="AR126" s="50">
+        <v>157</v>
+      </c>
+      <c r="AS126" s="50">
+        <v>167</v>
+      </c>
+      <c r="AT126" s="50">
+        <v>167</v>
+      </c>
+      <c r="AU126" s="50">
+        <v>180</v>
+      </c>
+      <c r="AV126" s="50">
+        <v>196</v>
+      </c>
+      <c r="AW126" s="50">
+        <v>209</v>
+      </c>
+      <c r="AX126" s="50">
+        <v>224</v>
+      </c>
+      <c r="AY126" s="50">
+        <v>234</v>
+      </c>
     </row>
-    <row r="127" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
         <v>125</v>
       </c>
@@ -18233,8 +21270,32 @@
       <c r="AQ127" s="45">
         <v>0</v>
       </c>
+      <c r="AR127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW127" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX127" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY127" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="26" t="s">
         <v>126</v>
       </c>
@@ -18364,8 +21425,32 @@
       <c r="AQ128" s="45">
         <v>2</v>
       </c>
+      <c r="AR128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX128" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY128" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="129" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="26" t="s">
         <v>127</v>
       </c>
@@ -18495,8 +21580,32 @@
       <c r="AQ129" s="45">
         <v>37</v>
       </c>
+      <c r="AR129" s="50">
+        <v>37</v>
+      </c>
+      <c r="AS129" s="50">
+        <v>39</v>
+      </c>
+      <c r="AT129" s="50">
+        <v>39</v>
+      </c>
+      <c r="AU129" s="50">
+        <v>41</v>
+      </c>
+      <c r="AV129" s="50">
+        <v>44</v>
+      </c>
+      <c r="AW129" s="50">
+        <v>47</v>
+      </c>
+      <c r="AX129" s="50">
+        <v>50</v>
+      </c>
+      <c r="AY129" s="50">
+        <v>54</v>
+      </c>
     </row>
-    <row r="130" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
         <v>128</v>
       </c>
@@ -18626,8 +21735,32 @@
       <c r="AQ130" s="45">
         <v>3</v>
       </c>
+      <c r="AR130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW130" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX130" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY130" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="131" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
         <v>129</v>
       </c>
@@ -18757,8 +21890,32 @@
       <c r="AQ131" s="45">
         <v>3</v>
       </c>
+      <c r="AR131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX131" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY131" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="132" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="26" t="s">
         <v>130</v>
       </c>
@@ -18888,8 +22045,32 @@
       <c r="AQ132" s="45">
         <v>33</v>
       </c>
+      <c r="AR132" s="50">
+        <v>38</v>
+      </c>
+      <c r="AS132" s="50">
+        <v>42</v>
+      </c>
+      <c r="AT132" s="50">
+        <v>42</v>
+      </c>
+      <c r="AU132" s="50">
+        <v>44</v>
+      </c>
+      <c r="AV132" s="50">
+        <v>48</v>
+      </c>
+      <c r="AW132" s="50">
+        <v>51</v>
+      </c>
+      <c r="AX132" s="50">
+        <v>58</v>
+      </c>
+      <c r="AY132" s="50">
+        <v>62</v>
+      </c>
     </row>
-    <row r="133" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="26" t="s">
         <v>131</v>
       </c>
@@ -19019,8 +22200,32 @@
       <c r="AQ133" s="45">
         <v>14</v>
       </c>
+      <c r="AR133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AS133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AT133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AU133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AV133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW133" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX133" s="50">
+        <v>15</v>
+      </c>
+      <c r="AY133" s="50">
+        <v>15</v>
+      </c>
     </row>
-    <row r="134" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
         <v>132</v>
       </c>
@@ -19150,8 +22355,32 @@
       <c r="AQ134" s="45">
         <v>0</v>
       </c>
+      <c r="AR134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX134" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY134" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
         <v>133</v>
       </c>
@@ -19281,8 +22510,32 @@
       <c r="AQ135" s="45">
         <v>0</v>
       </c>
+      <c r="AR135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY135" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
         <v>134</v>
       </c>
@@ -19412,8 +22665,32 @@
       <c r="AQ136" s="45">
         <v>4</v>
       </c>
+      <c r="AR136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW136" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX136" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY136" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="137" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="26" t="s">
         <v>135</v>
       </c>
@@ -19543,8 +22820,32 @@
       <c r="AQ137" s="45">
         <v>0</v>
       </c>
+      <c r="AR137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX137" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY137" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
         <v>136</v>
       </c>
@@ -19674,8 +22975,32 @@
       <c r="AQ138" s="45">
         <v>0</v>
       </c>
+      <c r="AR138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX138" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY138" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="26" t="s">
         <v>137</v>
       </c>
@@ -19805,8 +23130,32 @@
       <c r="AQ139" s="45">
         <v>0</v>
       </c>
+      <c r="AR139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX139" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY139" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="26" t="s">
         <v>138</v>
       </c>
@@ -19936,8 +23285,32 @@
       <c r="AQ140" s="45">
         <v>3</v>
       </c>
+      <c r="AR140" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS140" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT140" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU140" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV140" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW140" s="50">
+        <v>7</v>
+      </c>
+      <c r="AX140" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY140" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="141" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="26" t="s">
         <v>139</v>
       </c>
@@ -20067,8 +23440,32 @@
       <c r="AQ141" s="45">
         <v>1</v>
       </c>
+      <c r="AR141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX141" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY141" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="142" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="26" t="s">
         <v>140</v>
       </c>
@@ -20198,8 +23595,32 @@
       <c r="AQ142" s="45">
         <v>7</v>
       </c>
+      <c r="AR142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AW142" s="50">
+        <v>8</v>
+      </c>
+      <c r="AX142" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY142" s="50">
+        <v>8</v>
+      </c>
     </row>
-    <row r="143" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="26" t="s">
         <v>141</v>
       </c>
@@ -20329,8 +23750,32 @@
       <c r="AQ143" s="45">
         <v>2</v>
       </c>
+      <c r="AR143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX143" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY143" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="144" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
         <v>142</v>
       </c>
@@ -20460,8 +23905,32 @@
       <c r="AQ144" s="45">
         <v>2</v>
       </c>
+      <c r="AR144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX144" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY144" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="145" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="26" t="s">
         <v>143</v>
       </c>
@@ -20591,8 +24060,32 @@
       <c r="AQ145" s="45">
         <v>1</v>
       </c>
+      <c r="AR145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX145" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY145" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="26" t="s">
         <v>144</v>
       </c>
@@ -20722,8 +24215,32 @@
       <c r="AQ146" s="45">
         <v>4</v>
       </c>
+      <c r="AR146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW146" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX146" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY146" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="147" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="26" t="s">
         <v>145</v>
       </c>
@@ -20853,8 +24370,32 @@
       <c r="AQ147" s="45">
         <v>2</v>
       </c>
+      <c r="AR147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX147" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY147" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="148" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="26" t="s">
         <v>146</v>
       </c>
@@ -20984,8 +24525,32 @@
       <c r="AQ148" s="45">
         <v>4</v>
       </c>
+      <c r="AR148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX148" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY148" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="149" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="26" t="s">
         <v>147</v>
       </c>
@@ -21115,8 +24680,32 @@
       <c r="AQ149" s="45">
         <v>25</v>
       </c>
+      <c r="AR149" s="50">
+        <v>25</v>
+      </c>
+      <c r="AS149" s="50">
+        <v>29</v>
+      </c>
+      <c r="AT149" s="50">
+        <v>32</v>
+      </c>
+      <c r="AU149" s="50">
+        <v>32</v>
+      </c>
+      <c r="AV149" s="50">
+        <v>33</v>
+      </c>
+      <c r="AW149" s="50">
+        <v>37</v>
+      </c>
+      <c r="AX149" s="50">
+        <v>36</v>
+      </c>
+      <c r="AY149" s="50">
+        <v>37</v>
+      </c>
     </row>
-    <row r="150" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="26" t="s">
         <v>148</v>
       </c>
@@ -21246,8 +24835,32 @@
       <c r="AQ150" s="45">
         <v>11</v>
       </c>
+      <c r="AR150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AS150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AT150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AU150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AV150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AW150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AX150" s="50">
+        <v>11</v>
+      </c>
+      <c r="AY150" s="50">
+        <v>11</v>
+      </c>
     </row>
-    <row r="151" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="26" t="s">
         <v>149</v>
       </c>
@@ -21377,8 +24990,32 @@
       <c r="AQ151" s="45">
         <v>0</v>
       </c>
+      <c r="AR151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX151" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY151" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="152" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="26" t="s">
         <v>150</v>
       </c>
@@ -21508,8 +25145,32 @@
       <c r="AQ152" s="45">
         <v>3</v>
       </c>
+      <c r="AR152" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS152" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT152" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU152" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV152" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW152" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX152" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY152" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="153" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="26" t="s">
         <v>151</v>
       </c>
@@ -21639,8 +25300,32 @@
       <c r="AQ153" s="45">
         <v>3</v>
       </c>
+      <c r="AR153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX153" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY153" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="154" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="26" t="s">
         <v>152</v>
       </c>
@@ -21770,8 +25455,32 @@
       <c r="AQ154" s="45">
         <v>0</v>
       </c>
+      <c r="AR154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX154" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY154" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="26" t="s">
         <v>153</v>
       </c>
@@ -21901,8 +25610,32 @@
       <c r="AQ155" s="45">
         <v>367</v>
       </c>
+      <c r="AR155" s="50">
+        <v>401</v>
+      </c>
+      <c r="AS155" s="50">
+        <v>407</v>
+      </c>
+      <c r="AT155" s="50">
+        <v>419</v>
+      </c>
+      <c r="AU155" s="50">
+        <v>430</v>
+      </c>
+      <c r="AV155" s="50">
+        <v>445</v>
+      </c>
+      <c r="AW155" s="50">
+        <v>458</v>
+      </c>
+      <c r="AX155" s="50">
+        <v>470</v>
+      </c>
+      <c r="AY155" s="50">
+        <v>481</v>
+      </c>
     </row>
-    <row r="156" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="26" t="s">
         <v>154</v>
       </c>
@@ -22032,8 +25765,32 @@
       <c r="AQ156" s="45">
         <v>5</v>
       </c>
+      <c r="AR156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX156" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY156" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="157" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="26" t="s">
         <v>155</v>
       </c>
@@ -22163,8 +25920,32 @@
       <c r="AQ157" s="45">
         <v>3</v>
       </c>
+      <c r="AR157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY157" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="158" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="26" t="s">
         <v>156</v>
       </c>
@@ -22294,8 +26075,32 @@
       <c r="AQ158" s="45">
         <v>74</v>
       </c>
+      <c r="AR158" s="50">
+        <v>76</v>
+      </c>
+      <c r="AS158" s="50">
+        <v>76</v>
+      </c>
+      <c r="AT158" s="50">
+        <v>76</v>
+      </c>
+      <c r="AU158" s="50">
+        <v>76</v>
+      </c>
+      <c r="AV158" s="50">
+        <v>77</v>
+      </c>
+      <c r="AW158" s="50">
+        <v>78</v>
+      </c>
+      <c r="AX158" s="50">
+        <v>81</v>
+      </c>
+      <c r="AY158" s="50">
+        <v>81</v>
+      </c>
     </row>
-    <row r="159" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="26" t="s">
         <v>157</v>
       </c>
@@ -22425,8 +26230,32 @@
       <c r="AQ159" s="45">
         <v>0</v>
       </c>
+      <c r="AR159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX159" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY159" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="26" t="s">
         <v>158</v>
       </c>
@@ -22556,8 +26385,32 @@
       <c r="AQ160" s="45">
         <v>1</v>
       </c>
+      <c r="AR160" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX160" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY160" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="161" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="26" t="s">
         <v>159</v>
       </c>
@@ -22687,8 +26540,32 @@
       <c r="AQ161" s="45">
         <v>3</v>
       </c>
+      <c r="AR161" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS161" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT161" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU161" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV161" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW161" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX161" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY161" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="162" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="26" t="s">
         <v>160</v>
       </c>
@@ -22818,8 +26695,32 @@
       <c r="AQ162" s="45">
         <v>2</v>
       </c>
+      <c r="AR162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX162" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY162" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="163" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="26" t="s">
         <v>161</v>
       </c>
@@ -22949,8 +26850,32 @@
       <c r="AQ163" s="45">
         <v>1</v>
       </c>
+      <c r="AR163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX163" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY163" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="164" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="26" t="s">
         <v>162</v>
       </c>
@@ -23080,8 +27005,32 @@
       <c r="AQ164" s="45">
         <v>50</v>
       </c>
+      <c r="AR164" s="50">
+        <v>50</v>
+      </c>
+      <c r="AS164" s="50">
+        <v>51</v>
+      </c>
+      <c r="AT164" s="50">
+        <v>51</v>
+      </c>
+      <c r="AU164" s="50">
+        <v>51</v>
+      </c>
+      <c r="AV164" s="50">
+        <v>56</v>
+      </c>
+      <c r="AW164" s="50">
+        <v>55</v>
+      </c>
+      <c r="AX164" s="50">
+        <v>57</v>
+      </c>
+      <c r="AY164" s="50">
+        <v>58</v>
+      </c>
     </row>
-    <row r="165" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="26" t="s">
         <v>163</v>
       </c>
@@ -23211,8 +27160,32 @@
       <c r="AQ165" s="45">
         <v>10</v>
       </c>
+      <c r="AR165" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS165" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT165" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU165" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV165" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW165" s="50">
+        <v>15</v>
+      </c>
+      <c r="AX165" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY165" s="50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="166" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="26" t="s">
         <v>164</v>
       </c>
@@ -23342,8 +27315,32 @@
       <c r="AQ166" s="45">
         <v>15</v>
       </c>
+      <c r="AR166" s="50">
+        <v>15</v>
+      </c>
+      <c r="AS166" s="50">
+        <v>15</v>
+      </c>
+      <c r="AT166" s="50">
+        <v>15</v>
+      </c>
+      <c r="AU166" s="50">
+        <v>15</v>
+      </c>
+      <c r="AV166" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW166" s="50">
+        <v>17</v>
+      </c>
+      <c r="AX166" s="50">
+        <v>17</v>
+      </c>
+      <c r="AY166" s="50">
+        <v>17</v>
+      </c>
     </row>
-    <row r="167" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="26" t="s">
         <v>165</v>
       </c>
@@ -23473,8 +27470,32 @@
       <c r="AQ167" s="45">
         <v>0</v>
       </c>
+      <c r="AR167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX167" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY167" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="168" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="26" t="s">
         <v>166</v>
       </c>
@@ -23604,8 +27625,32 @@
       <c r="AQ168" s="45">
         <v>37</v>
       </c>
+      <c r="AR168" s="50">
+        <v>41</v>
+      </c>
+      <c r="AS168" s="50">
+        <v>42</v>
+      </c>
+      <c r="AT168" s="50">
+        <v>42</v>
+      </c>
+      <c r="AU168" s="50">
+        <v>43</v>
+      </c>
+      <c r="AV168" s="50">
+        <v>64</v>
+      </c>
+      <c r="AW168" s="50">
+        <v>65</v>
+      </c>
+      <c r="AX168" s="50">
+        <v>67</v>
+      </c>
+      <c r="AY168" s="50">
+        <v>69</v>
+      </c>
     </row>
-    <row r="169" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="26" t="s">
         <v>167</v>
       </c>
@@ -23735,8 +27780,32 @@
       <c r="AQ169" s="45">
         <v>8</v>
       </c>
+      <c r="AR169" s="50">
+        <v>9</v>
+      </c>
+      <c r="AS169" s="50">
+        <v>9</v>
+      </c>
+      <c r="AT169" s="50">
+        <v>11</v>
+      </c>
+      <c r="AU169" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV169" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW169" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX169" s="50">
+        <v>13</v>
+      </c>
+      <c r="AY169" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="170" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="31" t="s">
         <v>168</v>
       </c>
@@ -23866,8 +27935,32 @@
       <c r="AQ170" s="45">
         <v>0</v>
       </c>
+      <c r="AR170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX170" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY170" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="26" t="s">
         <v>169</v>
       </c>
@@ -23997,8 +28090,32 @@
       <c r="AQ171" s="45">
         <v>1</v>
       </c>
+      <c r="AR171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX171" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY171" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="26" t="s">
         <v>170</v>
       </c>
@@ -24128,8 +28245,32 @@
       <c r="AQ172" s="45">
         <v>5</v>
       </c>
+      <c r="AR172" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS172" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT172" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU172" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV172" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW172" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX172" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY172" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="173" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="26" t="s">
         <v>171</v>
       </c>
@@ -24259,8 +28400,32 @@
       <c r="AQ173" s="45">
         <v>331</v>
       </c>
+      <c r="AR173" s="50">
+        <v>350</v>
+      </c>
+      <c r="AS173" s="50">
+        <v>370</v>
+      </c>
+      <c r="AT173" s="50">
+        <v>377</v>
+      </c>
+      <c r="AU173" s="50">
+        <v>377</v>
+      </c>
+      <c r="AV173" s="50">
+        <v>393</v>
+      </c>
+      <c r="AW173" s="50">
+        <v>417</v>
+      </c>
+      <c r="AX173" s="50">
+        <v>440</v>
+      </c>
+      <c r="AY173" s="50">
+        <v>467</v>
+      </c>
     </row>
-    <row r="174" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="26" t="s">
         <v>172</v>
       </c>
@@ -24390,8 +28555,32 @@
       <c r="AQ174" s="45">
         <v>59</v>
       </c>
+      <c r="AR174" s="50">
+        <v>75</v>
+      </c>
+      <c r="AS174" s="50">
+        <v>99</v>
+      </c>
+      <c r="AT174" s="50">
+        <v>106</v>
+      </c>
+      <c r="AU174" s="50">
+        <v>121</v>
+      </c>
+      <c r="AV174" s="50">
+        <v>139</v>
+      </c>
+      <c r="AW174" s="50">
+        <v>162</v>
+      </c>
+      <c r="AX174" s="50">
+        <v>172</v>
+      </c>
+      <c r="AY174" s="50">
+        <v>186</v>
+      </c>
     </row>
-    <row r="175" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="26" t="s">
         <v>173</v>
       </c>
@@ -24521,8 +28710,32 @@
       <c r="AQ175" s="45">
         <v>3</v>
       </c>
+      <c r="AR175" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS175" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT175" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU175" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV175" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW175" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX175" s="50">
+        <v>5</v>
+      </c>
+      <c r="AY175" s="50">
+        <v>5</v>
+      </c>
     </row>
-    <row r="176" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="26" t="s">
         <v>174</v>
       </c>
@@ -24652,8 +28865,32 @@
       <c r="AQ176" s="45">
         <v>1</v>
       </c>
+      <c r="AR176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX176" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY176" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="26" t="s">
         <v>175</v>
       </c>
@@ -24783,8 +29020,32 @@
       <c r="AQ177" s="45">
         <v>69</v>
       </c>
+      <c r="AR177" s="50">
+        <v>75</v>
+      </c>
+      <c r="AS177" s="50">
+        <v>88</v>
+      </c>
+      <c r="AT177" s="50">
+        <v>89</v>
+      </c>
+      <c r="AU177" s="50">
+        <v>91</v>
+      </c>
+      <c r="AV177" s="50">
+        <v>96</v>
+      </c>
+      <c r="AW177" s="50">
+        <v>98</v>
+      </c>
+      <c r="AX177" s="50">
+        <v>110</v>
+      </c>
+      <c r="AY177" s="50">
+        <v>115</v>
+      </c>
     </row>
-    <row r="178" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="26" t="s">
         <v>176</v>
       </c>
@@ -24914,8 +29175,32 @@
       <c r="AQ178" s="45">
         <v>18</v>
       </c>
+      <c r="AR178" s="50">
+        <v>20</v>
+      </c>
+      <c r="AS178" s="50">
+        <v>20</v>
+      </c>
+      <c r="AT178" s="50">
+        <v>20</v>
+      </c>
+      <c r="AU178" s="50">
+        <v>20</v>
+      </c>
+      <c r="AV178" s="50">
+        <v>23</v>
+      </c>
+      <c r="AW178" s="50">
+        <v>24</v>
+      </c>
+      <c r="AX178" s="50">
+        <v>25</v>
+      </c>
+      <c r="AY178" s="50">
+        <v>26</v>
+      </c>
     </row>
-    <row r="179" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="26" t="s">
         <v>177</v>
       </c>
@@ -25045,8 +29330,32 @@
       <c r="AQ179" s="45">
         <v>2</v>
       </c>
+      <c r="AR179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX179" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY179" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="180" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="26" t="s">
         <v>178</v>
       </c>
@@ -25176,8 +29485,32 @@
       <c r="AQ180" s="45">
         <v>0</v>
       </c>
+      <c r="AR180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX180" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY180" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="181" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="26" t="s">
         <v>179</v>
       </c>
@@ -25307,8 +29640,32 @@
       <c r="AQ181" s="45">
         <v>83</v>
       </c>
+      <c r="AR181" s="50">
+        <v>87</v>
+      </c>
+      <c r="AS181" s="50">
+        <v>89</v>
+      </c>
+      <c r="AT181" s="50">
+        <v>90</v>
+      </c>
+      <c r="AU181" s="50">
+        <v>90</v>
+      </c>
+      <c r="AV181" s="50">
+        <v>90</v>
+      </c>
+      <c r="AW181" s="50">
+        <v>90</v>
+      </c>
+      <c r="AX181" s="50">
+        <v>90</v>
+      </c>
+      <c r="AY181" s="50">
+        <v>91</v>
+      </c>
     </row>
-    <row r="182" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="26" t="s">
         <v>180</v>
       </c>
@@ -25438,8 +29795,32 @@
       <c r="AQ182" s="45">
         <v>0</v>
       </c>
+      <c r="AR182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX182" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY182" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="183" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="26" t="s">
         <v>181</v>
       </c>
@@ -25569,8 +29950,32 @@
       <c r="AQ183" s="45">
         <v>3</v>
       </c>
+      <c r="AR183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX183" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY183" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="184" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="26" t="s">
         <v>182</v>
       </c>
@@ -25700,8 +30105,32 @@
       <c r="AQ184" s="45">
         <v>47</v>
       </c>
+      <c r="AR184" s="50">
+        <v>48</v>
+      </c>
+      <c r="AS184" s="50">
+        <v>48</v>
+      </c>
+      <c r="AT184" s="50">
+        <v>49</v>
+      </c>
+      <c r="AU184" s="50">
+        <v>49</v>
+      </c>
+      <c r="AV184" s="50">
+        <v>58</v>
+      </c>
+      <c r="AW184" s="50">
+        <v>59</v>
+      </c>
+      <c r="AX184" s="50">
+        <v>59</v>
+      </c>
+      <c r="AY184" s="50">
+        <v>63</v>
+      </c>
     </row>
-    <row r="185" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="26" t="s">
         <v>183</v>
       </c>
@@ -25831,8 +30260,32 @@
       <c r="AQ185" s="45">
         <v>6</v>
       </c>
+      <c r="AR185" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS185" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT185" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU185" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV185" s="50">
+        <v>7</v>
+      </c>
+      <c r="AW185" s="50">
+        <v>7</v>
+      </c>
+      <c r="AX185" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY185" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="186" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="26" t="s">
         <v>184</v>
       </c>
@@ -25962,8 +30415,32 @@
       <c r="AQ186" s="45">
         <v>32</v>
       </c>
+      <c r="AR186" s="50">
+        <v>35</v>
+      </c>
+      <c r="AS186" s="50">
+        <v>37</v>
+      </c>
+      <c r="AT186" s="50">
+        <v>37</v>
+      </c>
+      <c r="AU186" s="50">
+        <v>38</v>
+      </c>
+      <c r="AV186" s="50">
+        <v>42</v>
+      </c>
+      <c r="AW186" s="50">
+        <v>49</v>
+      </c>
+      <c r="AX186" s="50">
+        <v>61</v>
+      </c>
+      <c r="AY186" s="50">
+        <v>70</v>
+      </c>
     </row>
-    <row r="187" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="26" t="s">
         <v>185</v>
       </c>
@@ -26093,8 +30570,32 @@
       <c r="AQ187" s="45">
         <v>17</v>
       </c>
+      <c r="AR187" s="50">
+        <v>20</v>
+      </c>
+      <c r="AS187" s="50">
+        <v>21</v>
+      </c>
+      <c r="AT187" s="50">
+        <v>21</v>
+      </c>
+      <c r="AU187" s="50">
+        <v>21</v>
+      </c>
+      <c r="AV187" s="50">
+        <v>21</v>
+      </c>
+      <c r="AW187" s="50">
+        <v>21</v>
+      </c>
+      <c r="AX187" s="50">
+        <v>22</v>
+      </c>
+      <c r="AY187" s="50">
+        <v>23</v>
+      </c>
     </row>
-    <row r="188" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="26" t="s">
         <v>186</v>
       </c>
@@ -26224,8 +30725,32 @@
       <c r="AQ188" s="45">
         <v>0</v>
       </c>
+      <c r="AR188" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS188" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT188" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU188" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV188" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW188" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX188" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY188" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="189" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="26" t="s">
         <v>187</v>
       </c>
@@ -26355,8 +30880,32 @@
       <c r="AQ189" s="45">
         <v>5</v>
       </c>
+      <c r="AR189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AS189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW189" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX189" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY189" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="190" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="26" t="s">
         <v>188</v>
       </c>
@@ -26486,8 +31035,32 @@
       <c r="AQ190" s="45">
         <v>14</v>
       </c>
+      <c r="AR190" s="50">
+        <v>14</v>
+      </c>
+      <c r="AS190" s="50">
+        <v>14</v>
+      </c>
+      <c r="AT190" s="50">
+        <v>14</v>
+      </c>
+      <c r="AU190" s="50">
+        <v>14</v>
+      </c>
+      <c r="AV190" s="50">
+        <v>15</v>
+      </c>
+      <c r="AW190" s="50">
+        <v>15</v>
+      </c>
+      <c r="AX190" s="50">
+        <v>17</v>
+      </c>
+      <c r="AY190" s="50">
+        <v>18</v>
+      </c>
     </row>
-    <row r="191" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="26" t="s">
         <v>189</v>
       </c>
@@ -26617,8 +31190,32 @@
       <c r="AQ191" s="45">
         <v>92</v>
       </c>
+      <c r="AR191" s="50">
+        <v>101</v>
+      </c>
+      <c r="AS191" s="50">
+        <v>110</v>
+      </c>
+      <c r="AT191" s="50">
+        <v>130</v>
+      </c>
+      <c r="AU191" s="50">
+        <v>142</v>
+      </c>
+      <c r="AV191" s="50">
+        <v>160</v>
+      </c>
+      <c r="AW191" s="50">
+        <v>174</v>
+      </c>
+      <c r="AX191" s="50">
+        <v>204</v>
+      </c>
+      <c r="AY191" s="50">
+        <v>221</v>
+      </c>
     </row>
-    <row r="192" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="26" t="s">
         <v>190</v>
       </c>
@@ -26748,8 +31345,32 @@
       <c r="AQ192" s="45">
         <v>0</v>
       </c>
+      <c r="AR192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX192" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY192" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="26" t="s">
         <v>191</v>
       </c>
@@ -26879,8 +31500,32 @@
       <c r="AQ193" s="45">
         <v>2</v>
       </c>
+      <c r="AR193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX193" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY193" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="194" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="26" t="s">
         <v>192</v>
       </c>
@@ -27010,8 +31655,32 @@
       <c r="AQ194" s="45">
         <v>80</v>
       </c>
+      <c r="AR194" s="50">
+        <v>93</v>
+      </c>
+      <c r="AS194" s="50">
+        <v>97</v>
+      </c>
+      <c r="AT194" s="50">
+        <v>103</v>
+      </c>
+      <c r="AU194" s="50">
+        <v>112</v>
+      </c>
+      <c r="AV194" s="50">
+        <v>115</v>
+      </c>
+      <c r="AW194" s="50">
+        <v>117</v>
+      </c>
+      <c r="AX194" s="50">
+        <v>125</v>
+      </c>
+      <c r="AY194" s="50">
+        <v>137</v>
+      </c>
     </row>
-    <row r="195" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="26" t="s">
         <v>193</v>
       </c>
@@ -27141,8 +31810,32 @@
       <c r="AQ195" s="45">
         <v>0</v>
       </c>
+      <c r="AR195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX195" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY195" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="26" t="s">
         <v>194</v>
       </c>
@@ -27272,8 +31965,32 @@
       <c r="AQ196" s="45">
         <v>0</v>
       </c>
+      <c r="AR196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX196" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY196" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="26" t="s">
         <v>195</v>
       </c>
@@ -27403,8 +32120,32 @@
       <c r="AQ197" s="45">
         <v>1</v>
       </c>
+      <c r="AR197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX197" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY197" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="198" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="26" t="s">
         <v>196</v>
       </c>
@@ -27534,8 +32275,32 @@
       <c r="AQ198" s="45">
         <v>0</v>
       </c>
+      <c r="AR198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX198" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY198" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="199" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="26" t="s">
         <v>197</v>
       </c>
@@ -27665,8 +32430,32 @@
       <c r="AQ199" s="45">
         <v>0</v>
       </c>
+      <c r="AR199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX199" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY199" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="200" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="26" t="s">
         <v>198</v>
       </c>
@@ -27796,8 +32585,32 @@
       <c r="AQ200" s="45">
         <v>1</v>
       </c>
+      <c r="AR200" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX200" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY200" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="201" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="26" t="s">
         <v>199</v>
       </c>
@@ -27927,8 +32740,32 @@
       <c r="AQ201" s="45">
         <v>2</v>
       </c>
+      <c r="AR201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AS201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AT201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AU201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX201" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY201" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="202" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="26" t="s">
         <v>200</v>
       </c>
@@ -28058,8 +32895,32 @@
       <c r="AQ202" s="45">
         <v>30</v>
       </c>
+      <c r="AR202" s="50">
+        <v>32</v>
+      </c>
+      <c r="AS202" s="50">
+        <v>34</v>
+      </c>
+      <c r="AT202" s="50">
+        <v>34</v>
+      </c>
+      <c r="AU202" s="50">
+        <v>36</v>
+      </c>
+      <c r="AV202" s="50">
+        <v>40</v>
+      </c>
+      <c r="AW202" s="50">
+        <v>48</v>
+      </c>
+      <c r="AX202" s="50">
+        <v>48</v>
+      </c>
+      <c r="AY202" s="50">
+        <v>49</v>
+      </c>
     </row>
-    <row r="203" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="26" t="s">
         <v>201</v>
       </c>
@@ -28189,8 +33050,32 @@
       <c r="AQ203" s="45">
         <v>0</v>
       </c>
+      <c r="AR203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX203" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY203" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="26" t="s">
         <v>202</v>
       </c>
@@ -28320,8 +33205,32 @@
       <c r="AQ204" s="45">
         <v>24</v>
       </c>
+      <c r="AR204" s="50">
+        <v>25</v>
+      </c>
+      <c r="AS204" s="50">
+        <v>27</v>
+      </c>
+      <c r="AT204" s="50">
+        <v>27</v>
+      </c>
+      <c r="AU204" s="50">
+        <v>27</v>
+      </c>
+      <c r="AV204" s="50">
+        <v>27</v>
+      </c>
+      <c r="AW204" s="50">
+        <v>28</v>
+      </c>
+      <c r="AX204" s="50">
+        <v>28</v>
+      </c>
+      <c r="AY204" s="50">
+        <v>30</v>
+      </c>
     </row>
-    <row r="205" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="26" t="s">
         <v>203</v>
       </c>
@@ -28451,8 +33360,32 @@
       <c r="AQ205" s="45">
         <v>1</v>
       </c>
+      <c r="AR205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX205" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY205" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="206" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="26" t="s">
         <v>204</v>
       </c>
@@ -28582,8 +33515,32 @@
       <c r="AQ206" s="45">
         <v>11</v>
       </c>
+      <c r="AR206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AS206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AT206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AU206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AV206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AW206" s="50">
+        <v>14</v>
+      </c>
+      <c r="AX206" s="50">
+        <v>15</v>
+      </c>
+      <c r="AY206" s="50">
+        <v>16</v>
+      </c>
     </row>
-    <row r="207" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="26" t="s">
         <v>205</v>
       </c>
@@ -28713,8 +33670,32 @@
       <c r="AQ207" s="45">
         <v>10</v>
       </c>
+      <c r="AR207" s="50">
+        <v>10</v>
+      </c>
+      <c r="AS207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AW207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AX207" s="50">
+        <v>8</v>
+      </c>
+      <c r="AY207" s="50">
+        <v>8</v>
+      </c>
     </row>
-    <row r="208" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="26" t="s">
         <v>206</v>
       </c>
@@ -28844,8 +33825,32 @@
       <c r="AQ208" s="45">
         <v>8</v>
       </c>
+      <c r="AR208" s="50">
+        <v>8</v>
+      </c>
+      <c r="AS208" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT208" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU208" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV208" s="50">
+        <v>8</v>
+      </c>
+      <c r="AW208" s="50">
+        <v>9</v>
+      </c>
+      <c r="AX208" s="50">
+        <v>11</v>
+      </c>
+      <c r="AY208" s="50">
+        <v>11</v>
+      </c>
     </row>
-    <row r="209" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="26" t="s">
         <v>207</v>
       </c>
@@ -28975,8 +33980,32 @@
       <c r="AQ209" s="45">
         <v>0</v>
       </c>
+      <c r="AR209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY209" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="210" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="26" t="s">
         <v>208</v>
       </c>
@@ -29106,8 +34135,32 @@
       <c r="AQ210" s="45">
         <v>0</v>
       </c>
+      <c r="AR210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY210" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="211" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="26" t="s">
         <v>209</v>
       </c>
@@ -29237,8 +34290,32 @@
       <c r="AQ211" s="45">
         <v>1</v>
       </c>
+      <c r="AR211" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS211" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT211" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU211" s="50">
+        <v>2</v>
+      </c>
+      <c r="AV211" s="50">
+        <v>2</v>
+      </c>
+      <c r="AW211" s="50">
+        <v>2</v>
+      </c>
+      <c r="AX211" s="50">
+        <v>2</v>
+      </c>
+      <c r="AY211" s="50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="212" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="26" t="s">
         <v>210</v>
       </c>
@@ -29368,8 +34445,32 @@
       <c r="AQ212" s="45">
         <v>0</v>
       </c>
+      <c r="AR212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX212" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY212" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="213" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
         <v>211</v>
       </c>
@@ -29499,8 +34600,32 @@
       <c r="AQ213" s="45">
         <v>51</v>
       </c>
+      <c r="AR213" s="50">
+        <v>53</v>
+      </c>
+      <c r="AS213" s="50">
+        <v>60</v>
+      </c>
+      <c r="AT213" s="50">
+        <v>60</v>
+      </c>
+      <c r="AU213" s="50">
+        <v>60</v>
+      </c>
+      <c r="AV213" s="50">
+        <v>69</v>
+      </c>
+      <c r="AW213" s="50">
+        <v>69</v>
+      </c>
+      <c r="AX213" s="50">
+        <v>85</v>
+      </c>
+      <c r="AY213" s="50">
+        <v>86</v>
+      </c>
     </row>
-    <row r="214" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="26" t="s">
         <v>212</v>
       </c>
@@ -29630,8 +34755,32 @@
       <c r="AQ214" s="45">
         <v>4</v>
       </c>
+      <c r="AR214" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS214" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT214" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU214" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV214" s="50">
+        <v>7</v>
+      </c>
+      <c r="AW214" s="50">
+        <v>9</v>
+      </c>
+      <c r="AX214" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY214" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="215" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="26" t="s">
         <v>213</v>
       </c>
@@ -29761,8 +34910,32 @@
       <c r="AQ215" s="45">
         <v>108</v>
       </c>
+      <c r="AR215" s="50">
+        <v>108</v>
+      </c>
+      <c r="AS215" s="50">
+        <v>116</v>
+      </c>
+      <c r="AT215" s="50">
+        <v>121</v>
+      </c>
+      <c r="AU215" s="50">
+        <v>121</v>
+      </c>
+      <c r="AV215" s="50">
+        <v>123</v>
+      </c>
+      <c r="AW215" s="50">
+        <v>124</v>
+      </c>
+      <c r="AX215" s="50">
+        <v>125</v>
+      </c>
+      <c r="AY215" s="50">
+        <v>131</v>
+      </c>
     </row>
-    <row r="216" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
         <v>214</v>
       </c>
@@ -29892,8 +35065,32 @@
       <c r="AQ216" s="45">
         <v>0</v>
       </c>
+      <c r="AR216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX216" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY216" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
         <v>215</v>
       </c>
@@ -30023,8 +35220,32 @@
       <c r="AQ217" s="45">
         <v>7</v>
       </c>
+      <c r="AR217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AW217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AX217" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY217" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="218" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="26" t="s">
         <v>216</v>
       </c>
@@ -30154,8 +35375,32 @@
       <c r="AQ218" s="45">
         <v>1</v>
       </c>
+      <c r="AR218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX218" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY218" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="219" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
         <v>217</v>
       </c>
@@ -30285,8 +35530,32 @@
       <c r="AQ219" s="45">
         <v>0</v>
       </c>
+      <c r="AR219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX219" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY219" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="220" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="26" t="s">
         <v>218</v>
       </c>
@@ -30416,8 +35685,32 @@
       <c r="AQ220" s="45">
         <v>0</v>
       </c>
+      <c r="AR220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX220" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY220" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="221" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="26" t="s">
         <v>219</v>
       </c>
@@ -30547,8 +35840,32 @@
       <c r="AQ221" s="45">
         <v>0</v>
       </c>
+      <c r="AR221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX221" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY221" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="222" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="26" t="s">
         <v>220</v>
       </c>
@@ -30678,8 +35995,32 @@
       <c r="AQ222" s="45">
         <v>4</v>
       </c>
+      <c r="AR222" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS222" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT222" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU222" s="50">
+        <v>5</v>
+      </c>
+      <c r="AV222" s="50">
+        <v>5</v>
+      </c>
+      <c r="AW222" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX222" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY222" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="223" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="26" t="s">
         <v>221</v>
       </c>
@@ -30809,8 +36150,32 @@
       <c r="AQ223" s="45">
         <v>990</v>
       </c>
+      <c r="AR223" s="50">
+        <v>1093</v>
+      </c>
+      <c r="AS223" s="50">
+        <v>1175</v>
+      </c>
+      <c r="AT223" s="50">
+        <v>1229</v>
+      </c>
+      <c r="AU223" s="50">
+        <v>1242</v>
+      </c>
+      <c r="AV223" s="50">
+        <v>1249</v>
+      </c>
+      <c r="AW223" s="50">
+        <v>1333</v>
+      </c>
+      <c r="AX223" s="50">
+        <v>1430</v>
+      </c>
+      <c r="AY223" s="50">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="224" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="26" t="s">
         <v>222</v>
       </c>
@@ -30940,8 +36305,32 @@
       <c r="AQ224" s="45">
         <v>79</v>
       </c>
+      <c r="AR224" s="50">
+        <v>89</v>
+      </c>
+      <c r="AS224" s="50">
+        <v>126</v>
+      </c>
+      <c r="AT224" s="50">
+        <v>142</v>
+      </c>
+      <c r="AU224" s="50">
+        <v>144</v>
+      </c>
+      <c r="AV224" s="50">
+        <v>144</v>
+      </c>
+      <c r="AW224" s="50">
+        <v>164</v>
+      </c>
+      <c r="AX224" s="50">
+        <v>185</v>
+      </c>
+      <c r="AY224" s="50">
+        <v>191</v>
+      </c>
     </row>
-    <row r="225" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="26" t="s">
         <v>223</v>
       </c>
@@ -31071,8 +36460,32 @@
       <c r="AQ225" s="45">
         <v>0</v>
       </c>
+      <c r="AR225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX225" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY225" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="226" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="26" t="s">
         <v>224</v>
       </c>
@@ -31202,8 +36615,32 @@
       <c r="AQ226" s="45">
         <v>10</v>
       </c>
+      <c r="AR226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AS226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AT226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AU226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AV226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AW226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX226" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY226" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="227" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="26" t="s">
         <v>225</v>
       </c>
@@ -31333,8 +36770,32 @@
       <c r="AQ227" s="45">
         <v>0</v>
       </c>
+      <c r="AR227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX227" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY227" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="228" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="26" t="s">
         <v>226</v>
       </c>
@@ -31464,8 +36925,32 @@
       <c r="AQ228" s="45">
         <v>8</v>
       </c>
+      <c r="AR228" s="50">
+        <v>8</v>
+      </c>
+      <c r="AS228" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT228" s="50">
+        <v>9</v>
+      </c>
+      <c r="AU228" s="50">
+        <v>9</v>
+      </c>
+      <c r="AV228" s="50">
+        <v>11</v>
+      </c>
+      <c r="AW228" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX228" s="50">
+        <v>12</v>
+      </c>
+      <c r="AY228" s="50">
+        <v>15</v>
+      </c>
     </row>
-    <row r="229" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="26" t="s">
         <v>227</v>
       </c>
@@ -31595,8 +37080,32 @@
       <c r="AQ229" s="45">
         <v>40</v>
       </c>
+      <c r="AR229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AS229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AT229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AU229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AV229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AW229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AX229" s="50">
+        <v>41</v>
+      </c>
+      <c r="AY229" s="50">
+        <v>42</v>
+      </c>
     </row>
-    <row r="230" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="26" t="s">
         <v>228</v>
       </c>
@@ -31726,8 +37235,32 @@
       <c r="AQ230" s="45">
         <v>977</v>
       </c>
+      <c r="AR230" s="50">
+        <v>1029</v>
+      </c>
+      <c r="AS230" s="50">
+        <v>1074</v>
+      </c>
+      <c r="AT230" s="50">
+        <v>1092</v>
+      </c>
+      <c r="AU230" s="50">
+        <v>1108</v>
+      </c>
+      <c r="AV230" s="50">
+        <v>1174</v>
+      </c>
+      <c r="AW230" s="50">
+        <v>1233</v>
+      </c>
+      <c r="AX230" s="50">
+        <v>1263</v>
+      </c>
+      <c r="AY230" s="50">
+        <v>1312</v>
+      </c>
     </row>
-    <row r="231" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="26" t="s">
         <v>229</v>
       </c>
@@ -31857,8 +37390,32 @@
       <c r="AQ231" s="45">
         <v>7</v>
       </c>
+      <c r="AR231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AT231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AU231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AV231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AW231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AX231" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY231" s="50">
+        <v>8</v>
+      </c>
     </row>
-    <row r="232" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="26" t="s">
         <v>230</v>
       </c>
@@ -31988,8 +37545,32 @@
       <c r="AQ232" s="45">
         <v>4</v>
       </c>
+      <c r="AR232" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS232" s="50">
+        <v>5</v>
+      </c>
+      <c r="AT232" s="50">
+        <v>5</v>
+      </c>
+      <c r="AU232" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV232" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW232" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX232" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY232" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="233" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="26" t="s">
         <v>231</v>
       </c>
@@ -32119,8 +37700,32 @@
       <c r="AQ233" s="45">
         <v>9</v>
       </c>
+      <c r="AR233" s="50">
+        <v>9</v>
+      </c>
+      <c r="AS233" s="50">
+        <v>9</v>
+      </c>
+      <c r="AT233" s="50">
+        <v>9</v>
+      </c>
+      <c r="AU233" s="50">
+        <v>9</v>
+      </c>
+      <c r="AV233" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW233" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX233" s="50">
+        <v>12</v>
+      </c>
+      <c r="AY233" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="234" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="26" t="s">
         <v>232</v>
       </c>
@@ -32250,8 +37855,32 @@
       <c r="AQ234" s="45">
         <v>0</v>
       </c>
+      <c r="AR234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX234" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY234" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="26" t="s">
         <v>233</v>
       </c>
@@ -32381,8 +38010,32 @@
       <c r="AQ235" s="45">
         <v>6</v>
       </c>
+      <c r="AR235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX235" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY235" s="50">
+        <v>6</v>
+      </c>
     </row>
-    <row r="236" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="26" t="s">
         <v>234</v>
       </c>
@@ -32512,8 +38165,32 @@
       <c r="AQ236" s="45">
         <v>12</v>
       </c>
+      <c r="AR236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AS236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AX236" s="50">
+        <v>12</v>
+      </c>
+      <c r="AY236" s="50">
+        <v>12</v>
+      </c>
     </row>
-    <row r="237" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="26" t="s">
         <v>235</v>
       </c>
@@ -32643,8 +38320,32 @@
       <c r="AQ237" s="45">
         <v>11</v>
       </c>
+      <c r="AR237" s="50">
+        <v>11</v>
+      </c>
+      <c r="AS237" s="50">
+        <v>12</v>
+      </c>
+      <c r="AT237" s="50">
+        <v>12</v>
+      </c>
+      <c r="AU237" s="50">
+        <v>12</v>
+      </c>
+      <c r="AV237" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW237" s="50">
+        <v>13</v>
+      </c>
+      <c r="AX237" s="50">
+        <v>13</v>
+      </c>
+      <c r="AY237" s="50">
+        <v>13</v>
+      </c>
     </row>
-    <row r="238" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="26" t="s">
         <v>236</v>
       </c>
@@ -32774,8 +38475,32 @@
       <c r="AQ238" s="45">
         <v>89</v>
       </c>
+      <c r="AR238" s="50">
+        <v>89</v>
+      </c>
+      <c r="AS238" s="50">
+        <v>89</v>
+      </c>
+      <c r="AT238" s="50">
+        <v>93</v>
+      </c>
+      <c r="AU238" s="50">
+        <v>93</v>
+      </c>
+      <c r="AV238" s="50">
+        <v>95</v>
+      </c>
+      <c r="AW238" s="50">
+        <v>96</v>
+      </c>
+      <c r="AX238" s="50">
+        <v>105</v>
+      </c>
+      <c r="AY238" s="50">
+        <v>105</v>
+      </c>
     </row>
-    <row r="239" spans="1:43" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:51" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="26" t="s">
         <v>237</v>
       </c>
@@ -32905,8 +38630,32 @@
       <c r="AQ239" s="45">
         <v>58</v>
       </c>
+      <c r="AR239" s="50">
+        <v>67</v>
+      </c>
+      <c r="AS239" s="50">
+        <v>68</v>
+      </c>
+      <c r="AT239" s="50">
+        <v>77</v>
+      </c>
+      <c r="AU239" s="50">
+        <v>73</v>
+      </c>
+      <c r="AV239" s="50">
+        <v>95</v>
+      </c>
+      <c r="AW239" s="50">
+        <v>95</v>
+      </c>
+      <c r="AX239" s="50">
+        <v>136</v>
+      </c>
+      <c r="AY239" s="50">
+        <v>151</v>
+      </c>
     </row>
-    <row r="240" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="26" t="s">
         <v>238</v>
       </c>
@@ -33036,8 +38785,32 @@
       <c r="AQ240" s="45">
         <v>22</v>
       </c>
+      <c r="AR240" s="50">
+        <v>23</v>
+      </c>
+      <c r="AS240" s="50">
+        <v>22</v>
+      </c>
+      <c r="AT240" s="50">
+        <v>24</v>
+      </c>
+      <c r="AU240" s="50">
+        <v>24</v>
+      </c>
+      <c r="AV240" s="50">
+        <v>24</v>
+      </c>
+      <c r="AW240" s="50">
+        <v>27</v>
+      </c>
+      <c r="AX240" s="50">
+        <v>25</v>
+      </c>
+      <c r="AY240" s="50">
+        <v>25</v>
+      </c>
     </row>
-    <row r="241" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="26" t="s">
         <v>239</v>
       </c>
@@ -33167,8 +38940,32 @@
       <c r="AQ241" s="45">
         <v>0</v>
       </c>
+      <c r="AR241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AX241" s="50">
+        <v>0</v>
+      </c>
+      <c r="AY241" s="50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="26" t="s">
         <v>240</v>
       </c>
@@ -33298,8 +39095,32 @@
       <c r="AQ242" s="45">
         <v>46</v>
       </c>
+      <c r="AR242" s="50">
+        <v>47</v>
+      </c>
+      <c r="AS242" s="50">
+        <v>50</v>
+      </c>
+      <c r="AT242" s="50">
+        <v>52</v>
+      </c>
+      <c r="AU242" s="50">
+        <v>61</v>
+      </c>
+      <c r="AV242" s="50">
+        <v>67</v>
+      </c>
+      <c r="AW242" s="50">
+        <v>71</v>
+      </c>
+      <c r="AX242" s="50">
+        <v>77</v>
+      </c>
+      <c r="AY242" s="50">
+        <v>78</v>
+      </c>
     </row>
-    <row r="243" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="26" t="s">
         <v>241</v>
       </c>
@@ -33429,8 +39250,32 @@
       <c r="AQ243" s="45">
         <v>239</v>
       </c>
+      <c r="AR243" s="50">
+        <v>245</v>
+      </c>
+      <c r="AS243" s="50">
+        <v>253</v>
+      </c>
+      <c r="AT243" s="50">
+        <v>267</v>
+      </c>
+      <c r="AU243" s="50">
+        <v>280</v>
+      </c>
+      <c r="AV243" s="50">
+        <v>281</v>
+      </c>
+      <c r="AW243" s="50">
+        <v>295</v>
+      </c>
+      <c r="AX243" s="50">
+        <v>302</v>
+      </c>
+      <c r="AY243" s="50">
+        <v>321</v>
+      </c>
     </row>
-    <row r="244" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="26" t="s">
         <v>242</v>
       </c>
@@ -33560,8 +39405,32 @@
       <c r="AQ244" s="45">
         <v>32</v>
       </c>
+      <c r="AR244" s="50">
+        <v>32</v>
+      </c>
+      <c r="AS244" s="50">
+        <v>34</v>
+      </c>
+      <c r="AT244" s="50">
+        <v>34</v>
+      </c>
+      <c r="AU244" s="50">
+        <v>34</v>
+      </c>
+      <c r="AV244" s="50">
+        <v>36</v>
+      </c>
+      <c r="AW244" s="50">
+        <v>36</v>
+      </c>
+      <c r="AX244" s="50">
+        <v>36</v>
+      </c>
+      <c r="AY244" s="50">
+        <v>36</v>
+      </c>
     </row>
-    <row r="245" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="26" t="s">
         <v>243</v>
       </c>
@@ -33691,8 +39560,32 @@
       <c r="AQ245" s="45">
         <v>0</v>
       </c>
+      <c r="AR245" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS245" s="50">
+        <v>0</v>
+      </c>
+      <c r="AT245" s="50">
+        <v>0</v>
+      </c>
+      <c r="AU245" s="50">
+        <v>0</v>
+      </c>
+      <c r="AV245" s="50">
+        <v>0</v>
+      </c>
+      <c r="AW245" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX245" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY245" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="246" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="26" t="s">
         <v>244</v>
       </c>
@@ -33822,8 +39715,32 @@
       <c r="AQ246" s="45">
         <v>57</v>
       </c>
+      <c r="AR246" s="50">
+        <v>57</v>
+      </c>
+      <c r="AS246" s="50">
+        <v>58</v>
+      </c>
+      <c r="AT246" s="50">
+        <v>59</v>
+      </c>
+      <c r="AU246" s="50">
+        <v>60</v>
+      </c>
+      <c r="AV246" s="50">
+        <v>60</v>
+      </c>
+      <c r="AW246" s="50">
+        <v>62</v>
+      </c>
+      <c r="AX246" s="50">
+        <v>62</v>
+      </c>
+      <c r="AY246" s="50">
+        <v>62</v>
+      </c>
     </row>
-    <row r="247" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="26" t="s">
         <v>245</v>
       </c>
@@ -33953,8 +39870,32 @@
       <c r="AQ247" s="45">
         <v>1</v>
       </c>
+      <c r="AR247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX247" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY247" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="248" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="26" t="s">
         <v>246</v>
       </c>
@@ -34084,8 +40025,32 @@
       <c r="AQ248" s="45">
         <v>7</v>
       </c>
+      <c r="AR248" s="50">
+        <v>7</v>
+      </c>
+      <c r="AS248" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT248" s="50">
+        <v>8</v>
+      </c>
+      <c r="AU248" s="50">
+        <v>8</v>
+      </c>
+      <c r="AV248" s="50">
+        <v>9</v>
+      </c>
+      <c r="AW248" s="50">
+        <v>10</v>
+      </c>
+      <c r="AX248" s="50">
+        <v>10</v>
+      </c>
+      <c r="AY248" s="50">
+        <v>10</v>
+      </c>
     </row>
-    <row r="249" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="26" t="s">
         <v>247</v>
       </c>
@@ -34215,8 +40180,32 @@
       <c r="AQ249" s="45">
         <v>128</v>
       </c>
+      <c r="AR249" s="50">
+        <v>140</v>
+      </c>
+      <c r="AS249" s="50">
+        <v>146</v>
+      </c>
+      <c r="AT249" s="50">
+        <v>151</v>
+      </c>
+      <c r="AU249" s="50">
+        <v>155</v>
+      </c>
+      <c r="AV249" s="50">
+        <v>156</v>
+      </c>
+      <c r="AW249" s="50">
+        <v>158</v>
+      </c>
+      <c r="AX249" s="50">
+        <v>167</v>
+      </c>
+      <c r="AY249" s="50">
+        <v>182</v>
+      </c>
     </row>
-    <row r="250" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="26" t="s">
         <v>248</v>
       </c>
@@ -34346,8 +40335,32 @@
       <c r="AQ250" s="45">
         <v>13</v>
       </c>
+      <c r="AR250" s="50">
+        <v>19</v>
+      </c>
+      <c r="AS250" s="50">
+        <v>19</v>
+      </c>
+      <c r="AT250" s="50">
+        <v>21</v>
+      </c>
+      <c r="AU250" s="50">
+        <v>21</v>
+      </c>
+      <c r="AV250" s="50">
+        <v>22</v>
+      </c>
+      <c r="AW250" s="50">
+        <v>23</v>
+      </c>
+      <c r="AX250" s="50">
+        <v>25</v>
+      </c>
+      <c r="AY250" s="50">
+        <v>25</v>
+      </c>
     </row>
-    <row r="251" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="26" t="s">
         <v>249</v>
       </c>
@@ -34477,8 +40490,32 @@
       <c r="AQ251" s="45">
         <v>2</v>
       </c>
+      <c r="AR251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AS251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AT251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AU251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AV251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AW251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AX251" s="50">
+        <v>3</v>
+      </c>
+      <c r="AY251" s="50">
+        <v>3</v>
+      </c>
     </row>
-    <row r="252" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="26" t="s">
         <v>250</v>
       </c>
@@ -34608,8 +40645,32 @@
       <c r="AQ252" s="45">
         <v>7</v>
       </c>
+      <c r="AR252" s="50">
+        <v>8</v>
+      </c>
+      <c r="AS252" s="50">
+        <v>9</v>
+      </c>
+      <c r="AT252" s="50">
+        <v>9</v>
+      </c>
+      <c r="AU252" s="50">
+        <v>9</v>
+      </c>
+      <c r="AV252" s="50">
+        <v>12</v>
+      </c>
+      <c r="AW252" s="50">
+        <v>13</v>
+      </c>
+      <c r="AX252" s="50">
+        <v>14</v>
+      </c>
+      <c r="AY252" s="50">
+        <v>14</v>
+      </c>
     </row>
-    <row r="253" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="26" t="s">
         <v>251</v>
       </c>
@@ -34739,8 +40800,32 @@
       <c r="AQ253" s="45">
         <v>6</v>
       </c>
+      <c r="AR253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AX253" s="50">
+        <v>6</v>
+      </c>
+      <c r="AY253" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="254" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="26" t="s">
         <v>252</v>
       </c>
@@ -34870,8 +40955,32 @@
       <c r="AQ254" s="45">
         <v>0</v>
       </c>
+      <c r="AR254" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX254" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY254" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="255" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="26" t="s">
         <v>253</v>
       </c>
@@ -35001,8 +41110,32 @@
       <c r="AQ255" s="45">
         <v>4</v>
       </c>
+      <c r="AR255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AS255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AT255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AU255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AV255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AW255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX255" s="50">
+        <v>4</v>
+      </c>
+      <c r="AY255" s="50">
+        <v>4</v>
+      </c>
     </row>
-    <row r="256" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="26" t="s">
         <v>254</v>
       </c>
@@ -35132,8 +41265,32 @@
       <c r="AQ256" s="45">
         <v>4</v>
       </c>
+      <c r="AR256" s="50">
+        <v>6</v>
+      </c>
+      <c r="AS256" s="50">
+        <v>6</v>
+      </c>
+      <c r="AT256" s="50">
+        <v>6</v>
+      </c>
+      <c r="AU256" s="50">
+        <v>6</v>
+      </c>
+      <c r="AV256" s="50">
+        <v>6</v>
+      </c>
+      <c r="AW256" s="50">
+        <v>7</v>
+      </c>
+      <c r="AX256" s="50">
+        <v>7</v>
+      </c>
+      <c r="AY256" s="50">
+        <v>7</v>
+      </c>
     </row>
-    <row r="257" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="26" t="s">
         <v>255</v>
       </c>
@@ -35263,8 +41420,32 @@
       <c r="AQ257" s="45">
         <v>0</v>
       </c>
+      <c r="AR257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AT257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AU257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AV257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AW257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AX257" s="50">
+        <v>1</v>
+      </c>
+      <c r="AY257" s="50">
+        <v>1</v>
+      </c>
     </row>
-    <row r="258" spans="1:43" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="32" t="s">
         <v>1</v>
       </c>
@@ -35427,8 +41608,40 @@
       <c r="AQ258" s="8">
         <v>16455</v>
       </c>
+      <c r="AR258" s="8">
+        <f>SUM(AR4:AR257)</f>
+        <v>17371</v>
+      </c>
+      <c r="AS258" s="8">
+        <f t="shared" ref="AS258:AT258" si="1">SUM(AS4:AS257)</f>
+        <v>18260</v>
+      </c>
+      <c r="AT258" s="8">
+        <f t="shared" si="1"/>
+        <v>18923</v>
+      </c>
+      <c r="AU258" s="8">
+        <f>SUM(AU4:AU257)</f>
+        <v>19458</v>
+      </c>
+      <c r="AV258" s="8">
+        <f>SUM(AV4:AV257)</f>
+        <v>20196</v>
+      </c>
+      <c r="AW258" s="8">
+        <f>SUM(AW4:AW257)</f>
+        <v>21069</v>
+      </c>
+      <c r="AX258" s="8">
+        <f>SUM(AX4:AX257)</f>
+        <v>21944</v>
+      </c>
+      <c r="AY258" s="8">
+        <f>SUM(AY4:AY257)</f>
+        <v>22806</v>
+      </c>
     </row>
-    <row r="259" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AI259" s="46"/>
       <c r="AJ259" s="46"/>
       <c r="AK259" s="46"/>
@@ -35438,8 +41651,16 @@
       <c r="AO259" s="46"/>
       <c r="AP259" s="46"/>
       <c r="AQ259" s="46"/>
+      <c r="AR259" s="51"/>
+      <c r="AS259" s="51"/>
+      <c r="AT259" s="51"/>
+      <c r="AU259" s="51"/>
+      <c r="AV259" s="51"/>
+      <c r="AW259" s="51"/>
+      <c r="AX259" s="51"/>
+      <c r="AY259" s="51"/>
     </row>
-    <row r="260" spans="1:43" s="35" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" s="35" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="33" t="s">
         <v>260</v>
       </c>
@@ -35449,168 +41670,200 @@
         <v>0</v>
       </c>
       <c r="D260" s="13">
-        <f t="shared" ref="D260:AQ260" si="1">COUNTIF(D4:D257,"&lt;&gt;0")</f>
+        <f t="shared" ref="D260:AV260" si="2">COUNTIF(D4:D257,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="E260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="L260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="M260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="N260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="O260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="P260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="Q260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="R260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="S260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="T260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="U260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="V260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="W260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="X260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="Y260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="Z260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="AA260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="AB260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="AC260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="AD260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="AE260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="AF260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="AG260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="AH260" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="AI260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="AJ260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="AK260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="AL260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="AM260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="AN260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="AO260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="AP260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="AQ260" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
+      <c r="AR260" s="52">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="AS260" s="52">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="AT260" s="52">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="AU260" s="52">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="AV260" s="52">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="AW260" s="52">
+        <f t="shared" ref="AW260:AX260" si="3">COUNTIF(AW4:AW257,"&lt;&gt;0")</f>
+        <v>200</v>
+      </c>
+      <c r="AX260" s="52">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="AY260" s="52">
+        <f t="shared" ref="AY260" si="4">COUNTIF(AY4:AY257,"&lt;&gt;0")</f>
+        <v>204</v>
+      </c>
     </row>
-    <row r="261" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" spans="1:43" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" spans="1:51" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="36" t="s">
         <v>258</v>
       </c>
@@ -35640,8 +41893,16 @@
       <c r="Y262" s="14"/>
       <c r="Z262" s="15"/>
       <c r="AB262" s="12"/>
+      <c r="AR262" s="54"/>
+      <c r="AS262" s="54"/>
+      <c r="AT262" s="54"/>
+      <c r="AU262" s="54"/>
+      <c r="AV262" s="54"/>
+      <c r="AW262" s="54"/>
+      <c r="AX262" s="54"/>
+      <c r="AY262" s="54"/>
     </row>
-    <row r="263" spans="1:43" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:51" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="38" t="s">
         <v>287</v>
       </c>
@@ -35674,8 +41935,16 @@
         <v>274</v>
       </c>
       <c r="AD263" s="18"/>
+      <c r="AR263" s="54"/>
+      <c r="AS263" s="54"/>
+      <c r="AT263" s="54"/>
+      <c r="AU263" s="54"/>
+      <c r="AV263" s="54"/>
+      <c r="AW263" s="54"/>
+      <c r="AX263" s="54"/>
+      <c r="AY263" s="54"/>
     </row>
-    <row r="264" spans="1:43" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:51" s="18" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="39" t="s">
         <v>290</v>
       </c>
@@ -35696,9 +41965,17 @@
       <c r="P264" s="39"/>
       <c r="Q264" s="39"/>
       <c r="R264" s="39"/>
-      <c r="AE264" s="49"/>
+      <c r="AE264" s="57"/>
+      <c r="AR264" s="55"/>
+      <c r="AS264" s="55"/>
+      <c r="AT264" s="55"/>
+      <c r="AU264" s="55"/>
+      <c r="AV264" s="55"/>
+      <c r="AW264" s="55"/>
+      <c r="AX264" s="55"/>
+      <c r="AY264" s="55"/>
     </row>
-    <row r="265" spans="1:43" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:51" s="16" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="40" t="s">
         <v>281</v>
       </c>
@@ -35728,9 +42005,17 @@
       <c r="Y265" s="14"/>
       <c r="Z265" s="15"/>
       <c r="AB265" s="17"/>
-      <c r="AE265" s="49"/>
+      <c r="AE265" s="57"/>
+      <c r="AR265" s="54"/>
+      <c r="AS265" s="54"/>
+      <c r="AT265" s="54"/>
+      <c r="AU265" s="54"/>
+      <c r="AV265" s="54"/>
+      <c r="AW265" s="54"/>
+      <c r="AX265" s="54"/>
+      <c r="AY265" s="54"/>
     </row>
-    <row r="266" spans="1:43" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:51" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="36" t="s">
         <v>283</v>
       </c>
@@ -35760,29 +42045,37 @@
       <c r="Y266" s="14"/>
       <c r="Z266" s="15"/>
       <c r="AB266" s="17"/>
-      <c r="AE266" s="49"/>
+      <c r="AE266" s="57"/>
+      <c r="AR266" s="54"/>
+      <c r="AS266" s="54"/>
+      <c r="AT266" s="54"/>
+      <c r="AU266" s="54"/>
+      <c r="AV266" s="54"/>
+      <c r="AW266" s="54"/>
+      <c r="AX266" s="54"/>
+      <c r="AY266" s="54"/>
     </row>
-    <row r="267" spans="1:43" s="16" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="48" t="s">
+    <row r="267" spans="1:51" s="16" customFormat="1" ht="50.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="B267" s="48"/>
-      <c r="C267" s="48"/>
-      <c r="D267" s="48"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
-      <c r="G267" s="48"/>
-      <c r="H267" s="48"/>
-      <c r="I267" s="48"/>
-      <c r="J267" s="48"/>
-      <c r="K267" s="48"/>
-      <c r="L267" s="48"/>
-      <c r="M267" s="48"/>
-      <c r="N267" s="48"/>
-      <c r="O267" s="48"/>
-      <c r="P267" s="48"/>
-      <c r="Q267" s="48"/>
-      <c r="R267" s="48"/>
+      <c r="B267" s="56"/>
+      <c r="C267" s="56"/>
+      <c r="D267" s="56"/>
+      <c r="E267" s="56"/>
+      <c r="F267" s="56"/>
+      <c r="G267" s="56"/>
+      <c r="H267" s="56"/>
+      <c r="I267" s="56"/>
+      <c r="J267" s="56"/>
+      <c r="K267" s="56"/>
+      <c r="L267" s="56"/>
+      <c r="M267" s="56"/>
+      <c r="N267" s="56"/>
+      <c r="O267" s="56"/>
+      <c r="P267" s="56"/>
+      <c r="Q267" s="56"/>
+      <c r="R267" s="56"/>
       <c r="S267" s="14"/>
       <c r="T267" s="14"/>
       <c r="U267" s="14"/>
@@ -35792,16 +42085,24 @@
       <c r="Y267" s="14"/>
       <c r="Z267" s="15"/>
       <c r="AB267" s="17"/>
+      <c r="AR267" s="54"/>
+      <c r="AS267" s="54"/>
+      <c r="AT267" s="54"/>
+      <c r="AU267" s="54"/>
+      <c r="AV267" s="54"/>
+      <c r="AW267" s="54"/>
+      <c r="AX267" s="54"/>
+      <c r="AY267" s="54"/>
     </row>
-    <row r="268" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" spans="1:43" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" spans="1:51" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="273" spans="1:1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="11" t="s">
         <v>274</v>
